--- a/Projects/MARSIN_SAND/Data/Template.xlsx
+++ b/Projects/MARSIN_SAND/Data/Template.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$46</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$2:$amk$73</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
@@ -35,6 +35,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="158">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -1187,21 +1188,21 @@
   <dimension ref="A1:AMB65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="1016" min="10" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.57085020242915"/>
   </cols>
@@ -19658,21 +19659,23 @@
     </row>
     <row r="19" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="0"/>
+        <v>22</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="14"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
@@ -20682,7 +20685,7 @@
     </row>
     <row r="20" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>22</v>
@@ -21708,7 +21711,7 @@
     </row>
     <row r="21" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>22</v>
@@ -22734,7 +22737,7 @@
     </row>
     <row r="22" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>22</v>
@@ -23760,7 +23763,7 @@
     </row>
     <row r="23" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
@@ -24786,7 +24789,7 @@
     </row>
     <row r="24" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>22</v>
@@ -24801,7 +24804,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="14"/>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
@@ -25812,23 +25815,33 @@
     </row>
     <row r="25" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="14"/>
+      <c r="D25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="0"/>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
@@ -26838,7 +26851,7 @@
     </row>
     <row r="26" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
@@ -26859,7 +26872,7 @@
         <v>29</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I26" s="15" t="n">
         <v>1</v>
@@ -27874,7 +27887,7 @@
     </row>
     <row r="27" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>25</v>
@@ -27895,7 +27908,7 @@
         <v>29</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I27" s="15" t="n">
         <v>1</v>
@@ -28910,7 +28923,7 @@
     </row>
     <row r="28" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>25</v>
@@ -28931,7 +28944,7 @@
         <v>29</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I28" s="15" t="n">
         <v>1</v>
@@ -29946,7 +29959,7 @@
     </row>
     <row r="29" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>25</v>
@@ -29967,7 +29980,7 @@
         <v>29</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I29" s="15" t="n">
         <v>1</v>
@@ -30982,32 +30995,20 @@
     </row>
     <row r="30" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="15" t="n">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
       <c r="L30" s="0"/>
@@ -32018,7 +32019,7 @@
     </row>
     <row r="31" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>36</v>
@@ -33042,7 +33043,7 @@
     </row>
     <row r="32" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>36</v>
@@ -33052,10 +33053,10 @@
         <v>37</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
+      <c r="F32" s="7"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="4"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
       <c r="L32" s="0"/>
@@ -34064,1033 +34065,10 @@
       <c r="AMA32" s="0"/>
       <c r="AMB32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="0"/>
-      <c r="K33" s="0"/>
-      <c r="L33" s="0"/>
-      <c r="M33" s="0"/>
-      <c r="N33" s="0"/>
-      <c r="O33" s="0"/>
-      <c r="P33" s="0"/>
-      <c r="Q33" s="0"/>
-      <c r="R33" s="0"/>
-      <c r="S33" s="0"/>
-      <c r="T33" s="0"/>
-      <c r="U33" s="0"/>
-      <c r="V33" s="0"/>
-      <c r="W33" s="0"/>
-      <c r="X33" s="0"/>
-      <c r="Y33" s="0"/>
-      <c r="Z33" s="0"/>
-      <c r="AA33" s="0"/>
-      <c r="AB33" s="0"/>
-      <c r="AC33" s="0"/>
-      <c r="AD33" s="0"/>
-      <c r="AE33" s="0"/>
-      <c r="AF33" s="0"/>
-      <c r="AG33" s="0"/>
-      <c r="AH33" s="0"/>
-      <c r="AI33" s="0"/>
-      <c r="AJ33" s="0"/>
-      <c r="AK33" s="0"/>
-      <c r="AL33" s="0"/>
-      <c r="AM33" s="0"/>
-      <c r="AN33" s="0"/>
-      <c r="AO33" s="0"/>
-      <c r="AP33" s="0"/>
-      <c r="AQ33" s="0"/>
-      <c r="AR33" s="0"/>
-      <c r="AS33" s="0"/>
-      <c r="AT33" s="0"/>
-      <c r="AU33" s="0"/>
-      <c r="AV33" s="0"/>
-      <c r="AW33" s="0"/>
-      <c r="AX33" s="0"/>
-      <c r="AY33" s="0"/>
-      <c r="AZ33" s="0"/>
-      <c r="BA33" s="0"/>
-      <c r="BB33" s="0"/>
-      <c r="BC33" s="0"/>
-      <c r="BD33" s="0"/>
-      <c r="BE33" s="0"/>
-      <c r="BF33" s="0"/>
-      <c r="BG33" s="0"/>
-      <c r="BH33" s="0"/>
-      <c r="BI33" s="0"/>
-      <c r="BJ33" s="0"/>
-      <c r="BK33" s="0"/>
-      <c r="BL33" s="0"/>
-      <c r="BM33" s="0"/>
-      <c r="BN33" s="0"/>
-      <c r="BO33" s="0"/>
-      <c r="BP33" s="0"/>
-      <c r="BQ33" s="0"/>
-      <c r="BR33" s="0"/>
-      <c r="BS33" s="0"/>
-      <c r="BT33" s="0"/>
-      <c r="BU33" s="0"/>
-      <c r="BV33" s="0"/>
-      <c r="BW33" s="0"/>
-      <c r="BX33" s="0"/>
-      <c r="BY33" s="0"/>
-      <c r="BZ33" s="0"/>
-      <c r="CA33" s="0"/>
-      <c r="CB33" s="0"/>
-      <c r="CC33" s="0"/>
-      <c r="CD33" s="0"/>
-      <c r="CE33" s="0"/>
-      <c r="CF33" s="0"/>
-      <c r="CG33" s="0"/>
-      <c r="CH33" s="0"/>
-      <c r="CI33" s="0"/>
-      <c r="CJ33" s="0"/>
-      <c r="CK33" s="0"/>
-      <c r="CL33" s="0"/>
-      <c r="CM33" s="0"/>
-      <c r="CN33" s="0"/>
-      <c r="CO33" s="0"/>
-      <c r="CP33" s="0"/>
-      <c r="CQ33" s="0"/>
-      <c r="CR33" s="0"/>
-      <c r="CS33" s="0"/>
-      <c r="CT33" s="0"/>
-      <c r="CU33" s="0"/>
-      <c r="CV33" s="0"/>
-      <c r="CW33" s="0"/>
-      <c r="CX33" s="0"/>
-      <c r="CY33" s="0"/>
-      <c r="CZ33" s="0"/>
-      <c r="DA33" s="0"/>
-      <c r="DB33" s="0"/>
-      <c r="DC33" s="0"/>
-      <c r="DD33" s="0"/>
-      <c r="DE33" s="0"/>
-      <c r="DF33" s="0"/>
-      <c r="DG33" s="0"/>
-      <c r="DH33" s="0"/>
-      <c r="DI33" s="0"/>
-      <c r="DJ33" s="0"/>
-      <c r="DK33" s="0"/>
-      <c r="DL33" s="0"/>
-      <c r="DM33" s="0"/>
-      <c r="DN33" s="0"/>
-      <c r="DO33" s="0"/>
-      <c r="DP33" s="0"/>
-      <c r="DQ33" s="0"/>
-      <c r="DR33" s="0"/>
-      <c r="DS33" s="0"/>
-      <c r="DT33" s="0"/>
-      <c r="DU33" s="0"/>
-      <c r="DV33" s="0"/>
-      <c r="DW33" s="0"/>
-      <c r="DX33" s="0"/>
-      <c r="DY33" s="0"/>
-      <c r="DZ33" s="0"/>
-      <c r="EA33" s="0"/>
-      <c r="EB33" s="0"/>
-      <c r="EC33" s="0"/>
-      <c r="ED33" s="0"/>
-      <c r="EE33" s="0"/>
-      <c r="EF33" s="0"/>
-      <c r="EG33" s="0"/>
-      <c r="EH33" s="0"/>
-      <c r="EI33" s="0"/>
-      <c r="EJ33" s="0"/>
-      <c r="EK33" s="0"/>
-      <c r="EL33" s="0"/>
-      <c r="EM33" s="0"/>
-      <c r="EN33" s="0"/>
-      <c r="EO33" s="0"/>
-      <c r="EP33" s="0"/>
-      <c r="EQ33" s="0"/>
-      <c r="ER33" s="0"/>
-      <c r="ES33" s="0"/>
-      <c r="ET33" s="0"/>
-      <c r="EU33" s="0"/>
-      <c r="EV33" s="0"/>
-      <c r="EW33" s="0"/>
-      <c r="EX33" s="0"/>
-      <c r="EY33" s="0"/>
-      <c r="EZ33" s="0"/>
-      <c r="FA33" s="0"/>
-      <c r="FB33" s="0"/>
-      <c r="FC33" s="0"/>
-      <c r="FD33" s="0"/>
-      <c r="FE33" s="0"/>
-      <c r="FF33" s="0"/>
-      <c r="FG33" s="0"/>
-      <c r="FH33" s="0"/>
-      <c r="FI33" s="0"/>
-      <c r="FJ33" s="0"/>
-      <c r="FK33" s="0"/>
-      <c r="FL33" s="0"/>
-      <c r="FM33" s="0"/>
-      <c r="FN33" s="0"/>
-      <c r="FO33" s="0"/>
-      <c r="FP33" s="0"/>
-      <c r="FQ33" s="0"/>
-      <c r="FR33" s="0"/>
-      <c r="FS33" s="0"/>
-      <c r="FT33" s="0"/>
-      <c r="FU33" s="0"/>
-      <c r="FV33" s="0"/>
-      <c r="FW33" s="0"/>
-      <c r="FX33" s="0"/>
-      <c r="FY33" s="0"/>
-      <c r="FZ33" s="0"/>
-      <c r="GA33" s="0"/>
-      <c r="GB33" s="0"/>
-      <c r="GC33" s="0"/>
-      <c r="GD33" s="0"/>
-      <c r="GE33" s="0"/>
-      <c r="GF33" s="0"/>
-      <c r="GG33" s="0"/>
-      <c r="GH33" s="0"/>
-      <c r="GI33" s="0"/>
-      <c r="GJ33" s="0"/>
-      <c r="GK33" s="0"/>
-      <c r="GL33" s="0"/>
-      <c r="GM33" s="0"/>
-      <c r="GN33" s="0"/>
-      <c r="GO33" s="0"/>
-      <c r="GP33" s="0"/>
-      <c r="GQ33" s="0"/>
-      <c r="GR33" s="0"/>
-      <c r="GS33" s="0"/>
-      <c r="GT33" s="0"/>
-      <c r="GU33" s="0"/>
-      <c r="GV33" s="0"/>
-      <c r="GW33" s="0"/>
-      <c r="GX33" s="0"/>
-      <c r="GY33" s="0"/>
-      <c r="GZ33" s="0"/>
-      <c r="HA33" s="0"/>
-      <c r="HB33" s="0"/>
-      <c r="HC33" s="0"/>
-      <c r="HD33" s="0"/>
-      <c r="HE33" s="0"/>
-      <c r="HF33" s="0"/>
-      <c r="HG33" s="0"/>
-      <c r="HH33" s="0"/>
-      <c r="HI33" s="0"/>
-      <c r="HJ33" s="0"/>
-      <c r="HK33" s="0"/>
-      <c r="HL33" s="0"/>
-      <c r="HM33" s="0"/>
-      <c r="HN33" s="0"/>
-      <c r="HO33" s="0"/>
-      <c r="HP33" s="0"/>
-      <c r="HQ33" s="0"/>
-      <c r="HR33" s="0"/>
-      <c r="HS33" s="0"/>
-      <c r="HT33" s="0"/>
-      <c r="HU33" s="0"/>
-      <c r="HV33" s="0"/>
-      <c r="HW33" s="0"/>
-      <c r="HX33" s="0"/>
-      <c r="HY33" s="0"/>
-      <c r="HZ33" s="0"/>
-      <c r="IA33" s="0"/>
-      <c r="IB33" s="0"/>
-      <c r="IC33" s="0"/>
-      <c r="ID33" s="0"/>
-      <c r="IE33" s="0"/>
-      <c r="IF33" s="0"/>
-      <c r="IG33" s="0"/>
-      <c r="IH33" s="0"/>
-      <c r="II33" s="0"/>
-      <c r="IJ33" s="0"/>
-      <c r="IK33" s="0"/>
-      <c r="IL33" s="0"/>
-      <c r="IM33" s="0"/>
-      <c r="IN33" s="0"/>
-      <c r="IO33" s="0"/>
-      <c r="IP33" s="0"/>
-      <c r="IQ33" s="0"/>
-      <c r="IR33" s="0"/>
-      <c r="IS33" s="0"/>
-      <c r="IT33" s="0"/>
-      <c r="IU33" s="0"/>
-      <c r="IV33" s="0"/>
-      <c r="IW33" s="0"/>
-      <c r="IX33" s="0"/>
-      <c r="IY33" s="0"/>
-      <c r="IZ33" s="0"/>
-      <c r="JA33" s="0"/>
-      <c r="JB33" s="0"/>
-      <c r="JC33" s="0"/>
-      <c r="JD33" s="0"/>
-      <c r="JE33" s="0"/>
-      <c r="JF33" s="0"/>
-      <c r="JG33" s="0"/>
-      <c r="JH33" s="0"/>
-      <c r="JI33" s="0"/>
-      <c r="JJ33" s="0"/>
-      <c r="JK33" s="0"/>
-      <c r="JL33" s="0"/>
-      <c r="JM33" s="0"/>
-      <c r="JN33" s="0"/>
-      <c r="JO33" s="0"/>
-      <c r="JP33" s="0"/>
-      <c r="JQ33" s="0"/>
-      <c r="JR33" s="0"/>
-      <c r="JS33" s="0"/>
-      <c r="JT33" s="0"/>
-      <c r="JU33" s="0"/>
-      <c r="JV33" s="0"/>
-      <c r="JW33" s="0"/>
-      <c r="JX33" s="0"/>
-      <c r="JY33" s="0"/>
-      <c r="JZ33" s="0"/>
-      <c r="KA33" s="0"/>
-      <c r="KB33" s="0"/>
-      <c r="KC33" s="0"/>
-      <c r="KD33" s="0"/>
-      <c r="KE33" s="0"/>
-      <c r="KF33" s="0"/>
-      <c r="KG33" s="0"/>
-      <c r="KH33" s="0"/>
-      <c r="KI33" s="0"/>
-      <c r="KJ33" s="0"/>
-      <c r="KK33" s="0"/>
-      <c r="KL33" s="0"/>
-      <c r="KM33" s="0"/>
-      <c r="KN33" s="0"/>
-      <c r="KO33" s="0"/>
-      <c r="KP33" s="0"/>
-      <c r="KQ33" s="0"/>
-      <c r="KR33" s="0"/>
-      <c r="KS33" s="0"/>
-      <c r="KT33" s="0"/>
-      <c r="KU33" s="0"/>
-      <c r="KV33" s="0"/>
-      <c r="KW33" s="0"/>
-      <c r="KX33" s="0"/>
-      <c r="KY33" s="0"/>
-      <c r="KZ33" s="0"/>
-      <c r="LA33" s="0"/>
-      <c r="LB33" s="0"/>
-      <c r="LC33" s="0"/>
-      <c r="LD33" s="0"/>
-      <c r="LE33" s="0"/>
-      <c r="LF33" s="0"/>
-      <c r="LG33" s="0"/>
-      <c r="LH33" s="0"/>
-      <c r="LI33" s="0"/>
-      <c r="LJ33" s="0"/>
-      <c r="LK33" s="0"/>
-      <c r="LL33" s="0"/>
-      <c r="LM33" s="0"/>
-      <c r="LN33" s="0"/>
-      <c r="LO33" s="0"/>
-      <c r="LP33" s="0"/>
-      <c r="LQ33" s="0"/>
-      <c r="LR33" s="0"/>
-      <c r="LS33" s="0"/>
-      <c r="LT33" s="0"/>
-      <c r="LU33" s="0"/>
-      <c r="LV33" s="0"/>
-      <c r="LW33" s="0"/>
-      <c r="LX33" s="0"/>
-      <c r="LY33" s="0"/>
-      <c r="LZ33" s="0"/>
-      <c r="MA33" s="0"/>
-      <c r="MB33" s="0"/>
-      <c r="MC33" s="0"/>
-      <c r="MD33" s="0"/>
-      <c r="ME33" s="0"/>
-      <c r="MF33" s="0"/>
-      <c r="MG33" s="0"/>
-      <c r="MH33" s="0"/>
-      <c r="MI33" s="0"/>
-      <c r="MJ33" s="0"/>
-      <c r="MK33" s="0"/>
-      <c r="ML33" s="0"/>
-      <c r="MM33" s="0"/>
-      <c r="MN33" s="0"/>
-      <c r="MO33" s="0"/>
-      <c r="MP33" s="0"/>
-      <c r="MQ33" s="0"/>
-      <c r="MR33" s="0"/>
-      <c r="MS33" s="0"/>
-      <c r="MT33" s="0"/>
-      <c r="MU33" s="0"/>
-      <c r="MV33" s="0"/>
-      <c r="MW33" s="0"/>
-      <c r="MX33" s="0"/>
-      <c r="MY33" s="0"/>
-      <c r="MZ33" s="0"/>
-      <c r="NA33" s="0"/>
-      <c r="NB33" s="0"/>
-      <c r="NC33" s="0"/>
-      <c r="ND33" s="0"/>
-      <c r="NE33" s="0"/>
-      <c r="NF33" s="0"/>
-      <c r="NG33" s="0"/>
-      <c r="NH33" s="0"/>
-      <c r="NI33" s="0"/>
-      <c r="NJ33" s="0"/>
-      <c r="NK33" s="0"/>
-      <c r="NL33" s="0"/>
-      <c r="NM33" s="0"/>
-      <c r="NN33" s="0"/>
-      <c r="NO33" s="0"/>
-      <c r="NP33" s="0"/>
-      <c r="NQ33" s="0"/>
-      <c r="NR33" s="0"/>
-      <c r="NS33" s="0"/>
-      <c r="NT33" s="0"/>
-      <c r="NU33" s="0"/>
-      <c r="NV33" s="0"/>
-      <c r="NW33" s="0"/>
-      <c r="NX33" s="0"/>
-      <c r="NY33" s="0"/>
-      <c r="NZ33" s="0"/>
-      <c r="OA33" s="0"/>
-      <c r="OB33" s="0"/>
-      <c r="OC33" s="0"/>
-      <c r="OD33" s="0"/>
-      <c r="OE33" s="0"/>
-      <c r="OF33" s="0"/>
-      <c r="OG33" s="0"/>
-      <c r="OH33" s="0"/>
-      <c r="OI33" s="0"/>
-      <c r="OJ33" s="0"/>
-      <c r="OK33" s="0"/>
-      <c r="OL33" s="0"/>
-      <c r="OM33" s="0"/>
-      <c r="ON33" s="0"/>
-      <c r="OO33" s="0"/>
-      <c r="OP33" s="0"/>
-      <c r="OQ33" s="0"/>
-      <c r="OR33" s="0"/>
-      <c r="OS33" s="0"/>
-      <c r="OT33" s="0"/>
-      <c r="OU33" s="0"/>
-      <c r="OV33" s="0"/>
-      <c r="OW33" s="0"/>
-      <c r="OX33" s="0"/>
-      <c r="OY33" s="0"/>
-      <c r="OZ33" s="0"/>
-      <c r="PA33" s="0"/>
-      <c r="PB33" s="0"/>
-      <c r="PC33" s="0"/>
-      <c r="PD33" s="0"/>
-      <c r="PE33" s="0"/>
-      <c r="PF33" s="0"/>
-      <c r="PG33" s="0"/>
-      <c r="PH33" s="0"/>
-      <c r="PI33" s="0"/>
-      <c r="PJ33" s="0"/>
-      <c r="PK33" s="0"/>
-      <c r="PL33" s="0"/>
-      <c r="PM33" s="0"/>
-      <c r="PN33" s="0"/>
-      <c r="PO33" s="0"/>
-      <c r="PP33" s="0"/>
-      <c r="PQ33" s="0"/>
-      <c r="PR33" s="0"/>
-      <c r="PS33" s="0"/>
-      <c r="PT33" s="0"/>
-      <c r="PU33" s="0"/>
-      <c r="PV33" s="0"/>
-      <c r="PW33" s="0"/>
-      <c r="PX33" s="0"/>
-      <c r="PY33" s="0"/>
-      <c r="PZ33" s="0"/>
-      <c r="QA33" s="0"/>
-      <c r="QB33" s="0"/>
-      <c r="QC33" s="0"/>
-      <c r="QD33" s="0"/>
-      <c r="QE33" s="0"/>
-      <c r="QF33" s="0"/>
-      <c r="QG33" s="0"/>
-      <c r="QH33" s="0"/>
-      <c r="QI33" s="0"/>
-      <c r="QJ33" s="0"/>
-      <c r="QK33" s="0"/>
-      <c r="QL33" s="0"/>
-      <c r="QM33" s="0"/>
-      <c r="QN33" s="0"/>
-      <c r="QO33" s="0"/>
-      <c r="QP33" s="0"/>
-      <c r="QQ33" s="0"/>
-      <c r="QR33" s="0"/>
-      <c r="QS33" s="0"/>
-      <c r="QT33" s="0"/>
-      <c r="QU33" s="0"/>
-      <c r="QV33" s="0"/>
-      <c r="QW33" s="0"/>
-      <c r="QX33" s="0"/>
-      <c r="QY33" s="0"/>
-      <c r="QZ33" s="0"/>
-      <c r="RA33" s="0"/>
-      <c r="RB33" s="0"/>
-      <c r="RC33" s="0"/>
-      <c r="RD33" s="0"/>
-      <c r="RE33" s="0"/>
-      <c r="RF33" s="0"/>
-      <c r="RG33" s="0"/>
-      <c r="RH33" s="0"/>
-      <c r="RI33" s="0"/>
-      <c r="RJ33" s="0"/>
-      <c r="RK33" s="0"/>
-      <c r="RL33" s="0"/>
-      <c r="RM33" s="0"/>
-      <c r="RN33" s="0"/>
-      <c r="RO33" s="0"/>
-      <c r="RP33" s="0"/>
-      <c r="RQ33" s="0"/>
-      <c r="RR33" s="0"/>
-      <c r="RS33" s="0"/>
-      <c r="RT33" s="0"/>
-      <c r="RU33" s="0"/>
-      <c r="RV33" s="0"/>
-      <c r="RW33" s="0"/>
-      <c r="RX33" s="0"/>
-      <c r="RY33" s="0"/>
-      <c r="RZ33" s="0"/>
-      <c r="SA33" s="0"/>
-      <c r="SB33" s="0"/>
-      <c r="SC33" s="0"/>
-      <c r="SD33" s="0"/>
-      <c r="SE33" s="0"/>
-      <c r="SF33" s="0"/>
-      <c r="SG33" s="0"/>
-      <c r="SH33" s="0"/>
-      <c r="SI33" s="0"/>
-      <c r="SJ33" s="0"/>
-      <c r="SK33" s="0"/>
-      <c r="SL33" s="0"/>
-      <c r="SM33" s="0"/>
-      <c r="SN33" s="0"/>
-      <c r="SO33" s="0"/>
-      <c r="SP33" s="0"/>
-      <c r="SQ33" s="0"/>
-      <c r="SR33" s="0"/>
-      <c r="SS33" s="0"/>
-      <c r="ST33" s="0"/>
-      <c r="SU33" s="0"/>
-      <c r="SV33" s="0"/>
-      <c r="SW33" s="0"/>
-      <c r="SX33" s="0"/>
-      <c r="SY33" s="0"/>
-      <c r="SZ33" s="0"/>
-      <c r="TA33" s="0"/>
-      <c r="TB33" s="0"/>
-      <c r="TC33" s="0"/>
-      <c r="TD33" s="0"/>
-      <c r="TE33" s="0"/>
-      <c r="TF33" s="0"/>
-      <c r="TG33" s="0"/>
-      <c r="TH33" s="0"/>
-      <c r="TI33" s="0"/>
-      <c r="TJ33" s="0"/>
-      <c r="TK33" s="0"/>
-      <c r="TL33" s="0"/>
-      <c r="TM33" s="0"/>
-      <c r="TN33" s="0"/>
-      <c r="TO33" s="0"/>
-      <c r="TP33" s="0"/>
-      <c r="TQ33" s="0"/>
-      <c r="TR33" s="0"/>
-      <c r="TS33" s="0"/>
-      <c r="TT33" s="0"/>
-      <c r="TU33" s="0"/>
-      <c r="TV33" s="0"/>
-      <c r="TW33" s="0"/>
-      <c r="TX33" s="0"/>
-      <c r="TY33" s="0"/>
-      <c r="TZ33" s="0"/>
-      <c r="UA33" s="0"/>
-      <c r="UB33" s="0"/>
-      <c r="UC33" s="0"/>
-      <c r="UD33" s="0"/>
-      <c r="UE33" s="0"/>
-      <c r="UF33" s="0"/>
-      <c r="UG33" s="0"/>
-      <c r="UH33" s="0"/>
-      <c r="UI33" s="0"/>
-      <c r="UJ33" s="0"/>
-      <c r="UK33" s="0"/>
-      <c r="UL33" s="0"/>
-      <c r="UM33" s="0"/>
-      <c r="UN33" s="0"/>
-      <c r="UO33" s="0"/>
-      <c r="UP33" s="0"/>
-      <c r="UQ33" s="0"/>
-      <c r="UR33" s="0"/>
-      <c r="US33" s="0"/>
-      <c r="UT33" s="0"/>
-      <c r="UU33" s="0"/>
-      <c r="UV33" s="0"/>
-      <c r="UW33" s="0"/>
-      <c r="UX33" s="0"/>
-      <c r="UY33" s="0"/>
-      <c r="UZ33" s="0"/>
-      <c r="VA33" s="0"/>
-      <c r="VB33" s="0"/>
-      <c r="VC33" s="0"/>
-      <c r="VD33" s="0"/>
-      <c r="VE33" s="0"/>
-      <c r="VF33" s="0"/>
-      <c r="VG33" s="0"/>
-      <c r="VH33" s="0"/>
-      <c r="VI33" s="0"/>
-      <c r="VJ33" s="0"/>
-      <c r="VK33" s="0"/>
-      <c r="VL33" s="0"/>
-      <c r="VM33" s="0"/>
-      <c r="VN33" s="0"/>
-      <c r="VO33" s="0"/>
-      <c r="VP33" s="0"/>
-      <c r="VQ33" s="0"/>
-      <c r="VR33" s="0"/>
-      <c r="VS33" s="0"/>
-      <c r="VT33" s="0"/>
-      <c r="VU33" s="0"/>
-      <c r="VV33" s="0"/>
-      <c r="VW33" s="0"/>
-      <c r="VX33" s="0"/>
-      <c r="VY33" s="0"/>
-      <c r="VZ33" s="0"/>
-      <c r="WA33" s="0"/>
-      <c r="WB33" s="0"/>
-      <c r="WC33" s="0"/>
-      <c r="WD33" s="0"/>
-      <c r="WE33" s="0"/>
-      <c r="WF33" s="0"/>
-      <c r="WG33" s="0"/>
-      <c r="WH33" s="0"/>
-      <c r="WI33" s="0"/>
-      <c r="WJ33" s="0"/>
-      <c r="WK33" s="0"/>
-      <c r="WL33" s="0"/>
-      <c r="WM33" s="0"/>
-      <c r="WN33" s="0"/>
-      <c r="WO33" s="0"/>
-      <c r="WP33" s="0"/>
-      <c r="WQ33" s="0"/>
-      <c r="WR33" s="0"/>
-      <c r="WS33" s="0"/>
-      <c r="WT33" s="0"/>
-      <c r="WU33" s="0"/>
-      <c r="WV33" s="0"/>
-      <c r="WW33" s="0"/>
-      <c r="WX33" s="0"/>
-      <c r="WY33" s="0"/>
-      <c r="WZ33" s="0"/>
-      <c r="XA33" s="0"/>
-      <c r="XB33" s="0"/>
-      <c r="XC33" s="0"/>
-      <c r="XD33" s="0"/>
-      <c r="XE33" s="0"/>
-      <c r="XF33" s="0"/>
-      <c r="XG33" s="0"/>
-      <c r="XH33" s="0"/>
-      <c r="XI33" s="0"/>
-      <c r="XJ33" s="0"/>
-      <c r="XK33" s="0"/>
-      <c r="XL33" s="0"/>
-      <c r="XM33" s="0"/>
-      <c r="XN33" s="0"/>
-      <c r="XO33" s="0"/>
-      <c r="XP33" s="0"/>
-      <c r="XQ33" s="0"/>
-      <c r="XR33" s="0"/>
-      <c r="XS33" s="0"/>
-      <c r="XT33" s="0"/>
-      <c r="XU33" s="0"/>
-      <c r="XV33" s="0"/>
-      <c r="XW33" s="0"/>
-      <c r="XX33" s="0"/>
-      <c r="XY33" s="0"/>
-      <c r="XZ33" s="0"/>
-      <c r="YA33" s="0"/>
-      <c r="YB33" s="0"/>
-      <c r="YC33" s="0"/>
-      <c r="YD33" s="0"/>
-      <c r="YE33" s="0"/>
-      <c r="YF33" s="0"/>
-      <c r="YG33" s="0"/>
-      <c r="YH33" s="0"/>
-      <c r="YI33" s="0"/>
-      <c r="YJ33" s="0"/>
-      <c r="YK33" s="0"/>
-      <c r="YL33" s="0"/>
-      <c r="YM33" s="0"/>
-      <c r="YN33" s="0"/>
-      <c r="YO33" s="0"/>
-      <c r="YP33" s="0"/>
-      <c r="YQ33" s="0"/>
-      <c r="YR33" s="0"/>
-      <c r="YS33" s="0"/>
-      <c r="YT33" s="0"/>
-      <c r="YU33" s="0"/>
-      <c r="YV33" s="0"/>
-      <c r="YW33" s="0"/>
-      <c r="YX33" s="0"/>
-      <c r="YY33" s="0"/>
-      <c r="YZ33" s="0"/>
-      <c r="ZA33" s="0"/>
-      <c r="ZB33" s="0"/>
-      <c r="ZC33" s="0"/>
-      <c r="ZD33" s="0"/>
-      <c r="ZE33" s="0"/>
-      <c r="ZF33" s="0"/>
-      <c r="ZG33" s="0"/>
-      <c r="ZH33" s="0"/>
-      <c r="ZI33" s="0"/>
-      <c r="ZJ33" s="0"/>
-      <c r="ZK33" s="0"/>
-      <c r="ZL33" s="0"/>
-      <c r="ZM33" s="0"/>
-      <c r="ZN33" s="0"/>
-      <c r="ZO33" s="0"/>
-      <c r="ZP33" s="0"/>
-      <c r="ZQ33" s="0"/>
-      <c r="ZR33" s="0"/>
-      <c r="ZS33" s="0"/>
-      <c r="ZT33" s="0"/>
-      <c r="ZU33" s="0"/>
-      <c r="ZV33" s="0"/>
-      <c r="ZW33" s="0"/>
-      <c r="ZX33" s="0"/>
-      <c r="ZY33" s="0"/>
-      <c r="ZZ33" s="0"/>
-      <c r="AAA33" s="0"/>
-      <c r="AAB33" s="0"/>
-      <c r="AAC33" s="0"/>
-      <c r="AAD33" s="0"/>
-      <c r="AAE33" s="0"/>
-      <c r="AAF33" s="0"/>
-      <c r="AAG33" s="0"/>
-      <c r="AAH33" s="0"/>
-      <c r="AAI33" s="0"/>
-      <c r="AAJ33" s="0"/>
-      <c r="AAK33" s="0"/>
-      <c r="AAL33" s="0"/>
-      <c r="AAM33" s="0"/>
-      <c r="AAN33" s="0"/>
-      <c r="AAO33" s="0"/>
-      <c r="AAP33" s="0"/>
-      <c r="AAQ33" s="0"/>
-      <c r="AAR33" s="0"/>
-      <c r="AAS33" s="0"/>
-      <c r="AAT33" s="0"/>
-      <c r="AAU33" s="0"/>
-      <c r="AAV33" s="0"/>
-      <c r="AAW33" s="0"/>
-      <c r="AAX33" s="0"/>
-      <c r="AAY33" s="0"/>
-      <c r="AAZ33" s="0"/>
-      <c r="ABA33" s="0"/>
-      <c r="ABB33" s="0"/>
-      <c r="ABC33" s="0"/>
-      <c r="ABD33" s="0"/>
-      <c r="ABE33" s="0"/>
-      <c r="ABF33" s="0"/>
-      <c r="ABG33" s="0"/>
-      <c r="ABH33" s="0"/>
-      <c r="ABI33" s="0"/>
-      <c r="ABJ33" s="0"/>
-      <c r="ABK33" s="0"/>
-      <c r="ABL33" s="0"/>
-      <c r="ABM33" s="0"/>
-      <c r="ABN33" s="0"/>
-      <c r="ABO33" s="0"/>
-      <c r="ABP33" s="0"/>
-      <c r="ABQ33" s="0"/>
-      <c r="ABR33" s="0"/>
-      <c r="ABS33" s="0"/>
-      <c r="ABT33" s="0"/>
-      <c r="ABU33" s="0"/>
-      <c r="ABV33" s="0"/>
-      <c r="ABW33" s="0"/>
-      <c r="ABX33" s="0"/>
-      <c r="ABY33" s="0"/>
-      <c r="ABZ33" s="0"/>
-      <c r="ACA33" s="0"/>
-      <c r="ACB33" s="0"/>
-      <c r="ACC33" s="0"/>
-      <c r="ACD33" s="0"/>
-      <c r="ACE33" s="0"/>
-      <c r="ACF33" s="0"/>
-      <c r="ACG33" s="0"/>
-      <c r="ACH33" s="0"/>
-      <c r="ACI33" s="0"/>
-      <c r="ACJ33" s="0"/>
-      <c r="ACK33" s="0"/>
-      <c r="ACL33" s="0"/>
-      <c r="ACM33" s="0"/>
-      <c r="ACN33" s="0"/>
-      <c r="ACO33" s="0"/>
-      <c r="ACP33" s="0"/>
-      <c r="ACQ33" s="0"/>
-      <c r="ACR33" s="0"/>
-      <c r="ACS33" s="0"/>
-      <c r="ACT33" s="0"/>
-      <c r="ACU33" s="0"/>
-      <c r="ACV33" s="0"/>
-      <c r="ACW33" s="0"/>
-      <c r="ACX33" s="0"/>
-      <c r="ACY33" s="0"/>
-      <c r="ACZ33" s="0"/>
-      <c r="ADA33" s="0"/>
-      <c r="ADB33" s="0"/>
-      <c r="ADC33" s="0"/>
-      <c r="ADD33" s="0"/>
-      <c r="ADE33" s="0"/>
-      <c r="ADF33" s="0"/>
-      <c r="ADG33" s="0"/>
-      <c r="ADH33" s="0"/>
-      <c r="ADI33" s="0"/>
-      <c r="ADJ33" s="0"/>
-      <c r="ADK33" s="0"/>
-      <c r="ADL33" s="0"/>
-      <c r="ADM33" s="0"/>
-      <c r="ADN33" s="0"/>
-      <c r="ADO33" s="0"/>
-      <c r="ADP33" s="0"/>
-      <c r="ADQ33" s="0"/>
-      <c r="ADR33" s="0"/>
-      <c r="ADS33" s="0"/>
-      <c r="ADT33" s="0"/>
-      <c r="ADU33" s="0"/>
-      <c r="ADV33" s="0"/>
-      <c r="ADW33" s="0"/>
-      <c r="ADX33" s="0"/>
-      <c r="ADY33" s="0"/>
-      <c r="ADZ33" s="0"/>
-      <c r="AEA33" s="0"/>
-      <c r="AEB33" s="0"/>
-      <c r="AEC33" s="0"/>
-      <c r="AED33" s="0"/>
-      <c r="AEE33" s="0"/>
-      <c r="AEF33" s="0"/>
-      <c r="AEG33" s="0"/>
-      <c r="AEH33" s="0"/>
-      <c r="AEI33" s="0"/>
-      <c r="AEJ33" s="0"/>
-      <c r="AEK33" s="0"/>
-      <c r="AEL33" s="0"/>
-      <c r="AEM33" s="0"/>
-      <c r="AEN33" s="0"/>
-      <c r="AEO33" s="0"/>
-      <c r="AEP33" s="0"/>
-      <c r="AEQ33" s="0"/>
-      <c r="AER33" s="0"/>
-      <c r="AES33" s="0"/>
-      <c r="AET33" s="0"/>
-      <c r="AEU33" s="0"/>
-      <c r="AEV33" s="0"/>
-      <c r="AEW33" s="0"/>
-      <c r="AEX33" s="0"/>
-      <c r="AEY33" s="0"/>
-      <c r="AEZ33" s="0"/>
-      <c r="AFA33" s="0"/>
-      <c r="AFB33" s="0"/>
-      <c r="AFC33" s="0"/>
-      <c r="AFD33" s="0"/>
-      <c r="AFE33" s="0"/>
-      <c r="AFF33" s="0"/>
-      <c r="AFG33" s="0"/>
-      <c r="AFH33" s="0"/>
-      <c r="AFI33" s="0"/>
-      <c r="AFJ33" s="0"/>
-      <c r="AFK33" s="0"/>
-      <c r="AFL33" s="0"/>
-      <c r="AFM33" s="0"/>
-      <c r="AFN33" s="0"/>
-      <c r="AFO33" s="0"/>
-      <c r="AFP33" s="0"/>
-      <c r="AFQ33" s="0"/>
-      <c r="AFR33" s="0"/>
-      <c r="AFS33" s="0"/>
-      <c r="AFT33" s="0"/>
-      <c r="AFU33" s="0"/>
-      <c r="AFV33" s="0"/>
-      <c r="AFW33" s="0"/>
-      <c r="AFX33" s="0"/>
-      <c r="AFY33" s="0"/>
-      <c r="AFZ33" s="0"/>
-      <c r="AGA33" s="0"/>
-      <c r="AGB33" s="0"/>
-      <c r="AGC33" s="0"/>
-      <c r="AGD33" s="0"/>
-      <c r="AGE33" s="0"/>
-      <c r="AGF33" s="0"/>
-      <c r="AGG33" s="0"/>
-      <c r="AGH33" s="0"/>
-      <c r="AGI33" s="0"/>
-      <c r="AGJ33" s="0"/>
-      <c r="AGK33" s="0"/>
-      <c r="AGL33" s="0"/>
-      <c r="AGM33" s="0"/>
-      <c r="AGN33" s="0"/>
-      <c r="AGO33" s="0"/>
-      <c r="AGP33" s="0"/>
-      <c r="AGQ33" s="0"/>
-      <c r="AGR33" s="0"/>
-      <c r="AGS33" s="0"/>
-      <c r="AGT33" s="0"/>
-      <c r="AGU33" s="0"/>
-      <c r="AGV33" s="0"/>
-      <c r="AGW33" s="0"/>
-      <c r="AGX33" s="0"/>
-      <c r="AGY33" s="0"/>
-      <c r="AGZ33" s="0"/>
-      <c r="AHA33" s="0"/>
-      <c r="AHB33" s="0"/>
-      <c r="AHC33" s="0"/>
-      <c r="AHD33" s="0"/>
-      <c r="AHE33" s="0"/>
-      <c r="AHF33" s="0"/>
-      <c r="AHG33" s="0"/>
-      <c r="AHH33" s="0"/>
-      <c r="AHI33" s="0"/>
-      <c r="AHJ33" s="0"/>
-      <c r="AHK33" s="0"/>
-      <c r="AHL33" s="0"/>
-      <c r="AHM33" s="0"/>
-      <c r="AHN33" s="0"/>
-      <c r="AHO33" s="0"/>
-      <c r="AHP33" s="0"/>
-      <c r="AHQ33" s="0"/>
-      <c r="AHR33" s="0"/>
-      <c r="AHS33" s="0"/>
-      <c r="AHT33" s="0"/>
-      <c r="AHU33" s="0"/>
-      <c r="AHV33" s="0"/>
-      <c r="AHW33" s="0"/>
-      <c r="AHX33" s="0"/>
-      <c r="AHY33" s="0"/>
-      <c r="AHZ33" s="0"/>
-      <c r="AIA33" s="0"/>
-      <c r="AIB33" s="0"/>
-      <c r="AIC33" s="0"/>
-      <c r="AID33" s="0"/>
-      <c r="AIE33" s="0"/>
-      <c r="AIF33" s="0"/>
-      <c r="AIG33" s="0"/>
-      <c r="AIH33" s="0"/>
-      <c r="AII33" s="0"/>
-      <c r="AIJ33" s="0"/>
-      <c r="AIK33" s="0"/>
-      <c r="AIL33" s="0"/>
-      <c r="AIM33" s="0"/>
-      <c r="AIN33" s="0"/>
-      <c r="AIO33" s="0"/>
-      <c r="AIP33" s="0"/>
-      <c r="AIQ33" s="0"/>
-      <c r="AIR33" s="0"/>
-      <c r="AIS33" s="0"/>
-      <c r="AIT33" s="0"/>
-      <c r="AIU33" s="0"/>
-      <c r="AIV33" s="0"/>
-      <c r="AIW33" s="0"/>
-      <c r="AIX33" s="0"/>
-      <c r="AIY33" s="0"/>
-      <c r="AIZ33" s="0"/>
-      <c r="AJA33" s="0"/>
-      <c r="AJB33" s="0"/>
-      <c r="AJC33" s="0"/>
-      <c r="AJD33" s="0"/>
-      <c r="AJE33" s="0"/>
-      <c r="AJF33" s="0"/>
-      <c r="AJG33" s="0"/>
-      <c r="AJH33" s="0"/>
-      <c r="AJI33" s="0"/>
-      <c r="AJJ33" s="0"/>
-      <c r="AJK33" s="0"/>
-      <c r="AJL33" s="0"/>
-      <c r="AJM33" s="0"/>
-      <c r="AJN33" s="0"/>
-      <c r="AJO33" s="0"/>
-      <c r="AJP33" s="0"/>
-      <c r="AJQ33" s="0"/>
-      <c r="AJR33" s="0"/>
-      <c r="AJS33" s="0"/>
-      <c r="AJT33" s="0"/>
-      <c r="AJU33" s="0"/>
-      <c r="AJV33" s="0"/>
-      <c r="AJW33" s="0"/>
-      <c r="AJX33" s="0"/>
-      <c r="AJY33" s="0"/>
-      <c r="AJZ33" s="0"/>
-      <c r="AKA33" s="0"/>
-      <c r="AKB33" s="0"/>
-      <c r="AKC33" s="0"/>
-      <c r="AKD33" s="0"/>
-      <c r="AKE33" s="0"/>
-      <c r="AKF33" s="0"/>
-      <c r="AKG33" s="0"/>
-      <c r="AKH33" s="0"/>
-      <c r="AKI33" s="0"/>
-      <c r="AKJ33" s="0"/>
-      <c r="AKK33" s="0"/>
-      <c r="AKL33" s="0"/>
-      <c r="AKM33" s="0"/>
-      <c r="AKN33" s="0"/>
-      <c r="AKO33" s="0"/>
-      <c r="AKP33" s="0"/>
-      <c r="AKQ33" s="0"/>
-      <c r="AKR33" s="0"/>
-      <c r="AKS33" s="0"/>
-      <c r="AKT33" s="0"/>
-      <c r="AKU33" s="0"/>
-      <c r="AKV33" s="0"/>
-      <c r="AKW33" s="0"/>
-      <c r="AKX33" s="0"/>
-      <c r="AKY33" s="0"/>
-      <c r="AKZ33" s="0"/>
-      <c r="ALA33" s="0"/>
-      <c r="ALB33" s="0"/>
-      <c r="ALC33" s="0"/>
-      <c r="ALD33" s="0"/>
-      <c r="ALE33" s="0"/>
-      <c r="ALF33" s="0"/>
-      <c r="ALG33" s="0"/>
-      <c r="ALH33" s="0"/>
-      <c r="ALI33" s="0"/>
-      <c r="ALJ33" s="0"/>
-      <c r="ALK33" s="0"/>
-      <c r="ALL33" s="0"/>
-      <c r="ALM33" s="0"/>
-      <c r="ALN33" s="0"/>
-      <c r="ALO33" s="0"/>
-      <c r="ALP33" s="0"/>
-      <c r="ALQ33" s="0"/>
-      <c r="ALR33" s="0"/>
-      <c r="ALS33" s="0"/>
-      <c r="ALT33" s="0"/>
-      <c r="ALU33" s="0"/>
-      <c r="ALV33" s="0"/>
-      <c r="ALW33" s="0"/>
-      <c r="ALX33" s="0"/>
-      <c r="ALY33" s="0"/>
-      <c r="ALZ33" s="0"/>
-      <c r="AMA33" s="0"/>
-      <c r="AMB33" s="0"/>
-    </row>
+    <row r="42" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -35111,17 +34089,17 @@
   </sheetPr>
   <dimension ref="1:85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.57085020242915"/>
@@ -35129,7 +34107,7 @@
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="20" min="19" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
@@ -40279,10 +39257,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="35.0283400809717"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
@@ -40796,12 +39774,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.3805668016194"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -41314,10 +40292,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.1295546558704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.663967611336"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="0" width="13.3886639676113"/>
@@ -42496,21 +41474,21 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -43251,19 +42229,19 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSIN_SAND/Data/Template.xlsx
+++ b/Projects/MARSIN_SAND/Data/Template.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$47</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$2:$amk$73</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
@@ -36,6 +36,9 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="158">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -1190,19 +1193,19 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A19" activeCellId="0" sqref="19:19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="1016" min="10" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.57085020242915"/>
   </cols>
@@ -19659,23 +19662,21 @@
     </row>
     <row r="19" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
@@ -20685,7 +20686,7 @@
     </row>
     <row r="20" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>22</v>
@@ -21711,7 +21712,7 @@
     </row>
     <row r="21" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>22</v>
@@ -22737,7 +22738,7 @@
     </row>
     <row r="22" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>22</v>
@@ -23763,7 +23764,7 @@
     </row>
     <row r="23" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
@@ -24789,7 +24790,7 @@
     </row>
     <row r="24" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>22</v>
@@ -24804,7 +24805,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="14"/>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
@@ -25815,33 +25816,23 @@
     </row>
     <row r="25" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="0"/>
+      <c r="D25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="14"/>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
@@ -26851,7 +26842,7 @@
     </row>
     <row r="26" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
@@ -26872,7 +26863,7 @@
         <v>29</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I26" s="15" t="n">
         <v>1</v>
@@ -27887,7 +27878,7 @@
     </row>
     <row r="27" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>25</v>
@@ -27908,7 +27899,7 @@
         <v>29</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I27" s="15" t="n">
         <v>1</v>
@@ -28923,7 +28914,7 @@
     </row>
     <row r="28" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>25</v>
@@ -28944,7 +28935,7 @@
         <v>29</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I28" s="15" t="n">
         <v>1</v>
@@ -29959,7 +29950,7 @@
     </row>
     <row r="29" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>25</v>
@@ -29980,7 +29971,7 @@
         <v>29</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I29" s="15" t="n">
         <v>1</v>
@@ -30995,20 +30986,32 @@
     </row>
     <row r="30" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="15" t="n">
+        <v>1</v>
+      </c>
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
       <c r="L30" s="0"/>
@@ -32019,7 +32022,7 @@
     </row>
     <row r="31" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>36</v>
@@ -33043,7 +33046,7 @@
     </row>
     <row r="32" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>36</v>
@@ -33053,10 +33056,10 @@
         <v>37</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
       <c r="L32" s="0"/>
@@ -34065,10 +34068,1033 @@
       <c r="AMA32" s="0"/>
       <c r="AMB32" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
+      <c r="M33" s="0"/>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="0"/>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0"/>
+      <c r="U33" s="0"/>
+      <c r="V33" s="0"/>
+      <c r="W33" s="0"/>
+      <c r="X33" s="0"/>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0"/>
+      <c r="AA33" s="0"/>
+      <c r="AB33" s="0"/>
+      <c r="AC33" s="0"/>
+      <c r="AD33" s="0"/>
+      <c r="AE33" s="0"/>
+      <c r="AF33" s="0"/>
+      <c r="AG33" s="0"/>
+      <c r="AH33" s="0"/>
+      <c r="AI33" s="0"/>
+      <c r="AJ33" s="0"/>
+      <c r="AK33" s="0"/>
+      <c r="AL33" s="0"/>
+      <c r="AM33" s="0"/>
+      <c r="AN33" s="0"/>
+      <c r="AO33" s="0"/>
+      <c r="AP33" s="0"/>
+      <c r="AQ33" s="0"/>
+      <c r="AR33" s="0"/>
+      <c r="AS33" s="0"/>
+      <c r="AT33" s="0"/>
+      <c r="AU33" s="0"/>
+      <c r="AV33" s="0"/>
+      <c r="AW33" s="0"/>
+      <c r="AX33" s="0"/>
+      <c r="AY33" s="0"/>
+      <c r="AZ33" s="0"/>
+      <c r="BA33" s="0"/>
+      <c r="BB33" s="0"/>
+      <c r="BC33" s="0"/>
+      <c r="BD33" s="0"/>
+      <c r="BE33" s="0"/>
+      <c r="BF33" s="0"/>
+      <c r="BG33" s="0"/>
+      <c r="BH33" s="0"/>
+      <c r="BI33" s="0"/>
+      <c r="BJ33" s="0"/>
+      <c r="BK33" s="0"/>
+      <c r="BL33" s="0"/>
+      <c r="BM33" s="0"/>
+      <c r="BN33" s="0"/>
+      <c r="BO33" s="0"/>
+      <c r="BP33" s="0"/>
+      <c r="BQ33" s="0"/>
+      <c r="BR33" s="0"/>
+      <c r="BS33" s="0"/>
+      <c r="BT33" s="0"/>
+      <c r="BU33" s="0"/>
+      <c r="BV33" s="0"/>
+      <c r="BW33" s="0"/>
+      <c r="BX33" s="0"/>
+      <c r="BY33" s="0"/>
+      <c r="BZ33" s="0"/>
+      <c r="CA33" s="0"/>
+      <c r="CB33" s="0"/>
+      <c r="CC33" s="0"/>
+      <c r="CD33" s="0"/>
+      <c r="CE33" s="0"/>
+      <c r="CF33" s="0"/>
+      <c r="CG33" s="0"/>
+      <c r="CH33" s="0"/>
+      <c r="CI33" s="0"/>
+      <c r="CJ33" s="0"/>
+      <c r="CK33" s="0"/>
+      <c r="CL33" s="0"/>
+      <c r="CM33" s="0"/>
+      <c r="CN33" s="0"/>
+      <c r="CO33" s="0"/>
+      <c r="CP33" s="0"/>
+      <c r="CQ33" s="0"/>
+      <c r="CR33" s="0"/>
+      <c r="CS33" s="0"/>
+      <c r="CT33" s="0"/>
+      <c r="CU33" s="0"/>
+      <c r="CV33" s="0"/>
+      <c r="CW33" s="0"/>
+      <c r="CX33" s="0"/>
+      <c r="CY33" s="0"/>
+      <c r="CZ33" s="0"/>
+      <c r="DA33" s="0"/>
+      <c r="DB33" s="0"/>
+      <c r="DC33" s="0"/>
+      <c r="DD33" s="0"/>
+      <c r="DE33" s="0"/>
+      <c r="DF33" s="0"/>
+      <c r="DG33" s="0"/>
+      <c r="DH33" s="0"/>
+      <c r="DI33" s="0"/>
+      <c r="DJ33" s="0"/>
+      <c r="DK33" s="0"/>
+      <c r="DL33" s="0"/>
+      <c r="DM33" s="0"/>
+      <c r="DN33" s="0"/>
+      <c r="DO33" s="0"/>
+      <c r="DP33" s="0"/>
+      <c r="DQ33" s="0"/>
+      <c r="DR33" s="0"/>
+      <c r="DS33" s="0"/>
+      <c r="DT33" s="0"/>
+      <c r="DU33" s="0"/>
+      <c r="DV33" s="0"/>
+      <c r="DW33" s="0"/>
+      <c r="DX33" s="0"/>
+      <c r="DY33" s="0"/>
+      <c r="DZ33" s="0"/>
+      <c r="EA33" s="0"/>
+      <c r="EB33" s="0"/>
+      <c r="EC33" s="0"/>
+      <c r="ED33" s="0"/>
+      <c r="EE33" s="0"/>
+      <c r="EF33" s="0"/>
+      <c r="EG33" s="0"/>
+      <c r="EH33" s="0"/>
+      <c r="EI33" s="0"/>
+      <c r="EJ33" s="0"/>
+      <c r="EK33" s="0"/>
+      <c r="EL33" s="0"/>
+      <c r="EM33" s="0"/>
+      <c r="EN33" s="0"/>
+      <c r="EO33" s="0"/>
+      <c r="EP33" s="0"/>
+      <c r="EQ33" s="0"/>
+      <c r="ER33" s="0"/>
+      <c r="ES33" s="0"/>
+      <c r="ET33" s="0"/>
+      <c r="EU33" s="0"/>
+      <c r="EV33" s="0"/>
+      <c r="EW33" s="0"/>
+      <c r="EX33" s="0"/>
+      <c r="EY33" s="0"/>
+      <c r="EZ33" s="0"/>
+      <c r="FA33" s="0"/>
+      <c r="FB33" s="0"/>
+      <c r="FC33" s="0"/>
+      <c r="FD33" s="0"/>
+      <c r="FE33" s="0"/>
+      <c r="FF33" s="0"/>
+      <c r="FG33" s="0"/>
+      <c r="FH33" s="0"/>
+      <c r="FI33" s="0"/>
+      <c r="FJ33" s="0"/>
+      <c r="FK33" s="0"/>
+      <c r="FL33" s="0"/>
+      <c r="FM33" s="0"/>
+      <c r="FN33" s="0"/>
+      <c r="FO33" s="0"/>
+      <c r="FP33" s="0"/>
+      <c r="FQ33" s="0"/>
+      <c r="FR33" s="0"/>
+      <c r="FS33" s="0"/>
+      <c r="FT33" s="0"/>
+      <c r="FU33" s="0"/>
+      <c r="FV33" s="0"/>
+      <c r="FW33" s="0"/>
+      <c r="FX33" s="0"/>
+      <c r="FY33" s="0"/>
+      <c r="FZ33" s="0"/>
+      <c r="GA33" s="0"/>
+      <c r="GB33" s="0"/>
+      <c r="GC33" s="0"/>
+      <c r="GD33" s="0"/>
+      <c r="GE33" s="0"/>
+      <c r="GF33" s="0"/>
+      <c r="GG33" s="0"/>
+      <c r="GH33" s="0"/>
+      <c r="GI33" s="0"/>
+      <c r="GJ33" s="0"/>
+      <c r="GK33" s="0"/>
+      <c r="GL33" s="0"/>
+      <c r="GM33" s="0"/>
+      <c r="GN33" s="0"/>
+      <c r="GO33" s="0"/>
+      <c r="GP33" s="0"/>
+      <c r="GQ33" s="0"/>
+      <c r="GR33" s="0"/>
+      <c r="GS33" s="0"/>
+      <c r="GT33" s="0"/>
+      <c r="GU33" s="0"/>
+      <c r="GV33" s="0"/>
+      <c r="GW33" s="0"/>
+      <c r="GX33" s="0"/>
+      <c r="GY33" s="0"/>
+      <c r="GZ33" s="0"/>
+      <c r="HA33" s="0"/>
+      <c r="HB33" s="0"/>
+      <c r="HC33" s="0"/>
+      <c r="HD33" s="0"/>
+      <c r="HE33" s="0"/>
+      <c r="HF33" s="0"/>
+      <c r="HG33" s="0"/>
+      <c r="HH33" s="0"/>
+      <c r="HI33" s="0"/>
+      <c r="HJ33" s="0"/>
+      <c r="HK33" s="0"/>
+      <c r="HL33" s="0"/>
+      <c r="HM33" s="0"/>
+      <c r="HN33" s="0"/>
+      <c r="HO33" s="0"/>
+      <c r="HP33" s="0"/>
+      <c r="HQ33" s="0"/>
+      <c r="HR33" s="0"/>
+      <c r="HS33" s="0"/>
+      <c r="HT33" s="0"/>
+      <c r="HU33" s="0"/>
+      <c r="HV33" s="0"/>
+      <c r="HW33" s="0"/>
+      <c r="HX33" s="0"/>
+      <c r="HY33" s="0"/>
+      <c r="HZ33" s="0"/>
+      <c r="IA33" s="0"/>
+      <c r="IB33" s="0"/>
+      <c r="IC33" s="0"/>
+      <c r="ID33" s="0"/>
+      <c r="IE33" s="0"/>
+      <c r="IF33" s="0"/>
+      <c r="IG33" s="0"/>
+      <c r="IH33" s="0"/>
+      <c r="II33" s="0"/>
+      <c r="IJ33" s="0"/>
+      <c r="IK33" s="0"/>
+      <c r="IL33" s="0"/>
+      <c r="IM33" s="0"/>
+      <c r="IN33" s="0"/>
+      <c r="IO33" s="0"/>
+      <c r="IP33" s="0"/>
+      <c r="IQ33" s="0"/>
+      <c r="IR33" s="0"/>
+      <c r="IS33" s="0"/>
+      <c r="IT33" s="0"/>
+      <c r="IU33" s="0"/>
+      <c r="IV33" s="0"/>
+      <c r="IW33" s="0"/>
+      <c r="IX33" s="0"/>
+      <c r="IY33" s="0"/>
+      <c r="IZ33" s="0"/>
+      <c r="JA33" s="0"/>
+      <c r="JB33" s="0"/>
+      <c r="JC33" s="0"/>
+      <c r="JD33" s="0"/>
+      <c r="JE33" s="0"/>
+      <c r="JF33" s="0"/>
+      <c r="JG33" s="0"/>
+      <c r="JH33" s="0"/>
+      <c r="JI33" s="0"/>
+      <c r="JJ33" s="0"/>
+      <c r="JK33" s="0"/>
+      <c r="JL33" s="0"/>
+      <c r="JM33" s="0"/>
+      <c r="JN33" s="0"/>
+      <c r="JO33" s="0"/>
+      <c r="JP33" s="0"/>
+      <c r="JQ33" s="0"/>
+      <c r="JR33" s="0"/>
+      <c r="JS33" s="0"/>
+      <c r="JT33" s="0"/>
+      <c r="JU33" s="0"/>
+      <c r="JV33" s="0"/>
+      <c r="JW33" s="0"/>
+      <c r="JX33" s="0"/>
+      <c r="JY33" s="0"/>
+      <c r="JZ33" s="0"/>
+      <c r="KA33" s="0"/>
+      <c r="KB33" s="0"/>
+      <c r="KC33" s="0"/>
+      <c r="KD33" s="0"/>
+      <c r="KE33" s="0"/>
+      <c r="KF33" s="0"/>
+      <c r="KG33" s="0"/>
+      <c r="KH33" s="0"/>
+      <c r="KI33" s="0"/>
+      <c r="KJ33" s="0"/>
+      <c r="KK33" s="0"/>
+      <c r="KL33" s="0"/>
+      <c r="KM33" s="0"/>
+      <c r="KN33" s="0"/>
+      <c r="KO33" s="0"/>
+      <c r="KP33" s="0"/>
+      <c r="KQ33" s="0"/>
+      <c r="KR33" s="0"/>
+      <c r="KS33" s="0"/>
+      <c r="KT33" s="0"/>
+      <c r="KU33" s="0"/>
+      <c r="KV33" s="0"/>
+      <c r="KW33" s="0"/>
+      <c r="KX33" s="0"/>
+      <c r="KY33" s="0"/>
+      <c r="KZ33" s="0"/>
+      <c r="LA33" s="0"/>
+      <c r="LB33" s="0"/>
+      <c r="LC33" s="0"/>
+      <c r="LD33" s="0"/>
+      <c r="LE33" s="0"/>
+      <c r="LF33" s="0"/>
+      <c r="LG33" s="0"/>
+      <c r="LH33" s="0"/>
+      <c r="LI33" s="0"/>
+      <c r="LJ33" s="0"/>
+      <c r="LK33" s="0"/>
+      <c r="LL33" s="0"/>
+      <c r="LM33" s="0"/>
+      <c r="LN33" s="0"/>
+      <c r="LO33" s="0"/>
+      <c r="LP33" s="0"/>
+      <c r="LQ33" s="0"/>
+      <c r="LR33" s="0"/>
+      <c r="LS33" s="0"/>
+      <c r="LT33" s="0"/>
+      <c r="LU33" s="0"/>
+      <c r="LV33" s="0"/>
+      <c r="LW33" s="0"/>
+      <c r="LX33" s="0"/>
+      <c r="LY33" s="0"/>
+      <c r="LZ33" s="0"/>
+      <c r="MA33" s="0"/>
+      <c r="MB33" s="0"/>
+      <c r="MC33" s="0"/>
+      <c r="MD33" s="0"/>
+      <c r="ME33" s="0"/>
+      <c r="MF33" s="0"/>
+      <c r="MG33" s="0"/>
+      <c r="MH33" s="0"/>
+      <c r="MI33" s="0"/>
+      <c r="MJ33" s="0"/>
+      <c r="MK33" s="0"/>
+      <c r="ML33" s="0"/>
+      <c r="MM33" s="0"/>
+      <c r="MN33" s="0"/>
+      <c r="MO33" s="0"/>
+      <c r="MP33" s="0"/>
+      <c r="MQ33" s="0"/>
+      <c r="MR33" s="0"/>
+      <c r="MS33" s="0"/>
+      <c r="MT33" s="0"/>
+      <c r="MU33" s="0"/>
+      <c r="MV33" s="0"/>
+      <c r="MW33" s="0"/>
+      <c r="MX33" s="0"/>
+      <c r="MY33" s="0"/>
+      <c r="MZ33" s="0"/>
+      <c r="NA33" s="0"/>
+      <c r="NB33" s="0"/>
+      <c r="NC33" s="0"/>
+      <c r="ND33" s="0"/>
+      <c r="NE33" s="0"/>
+      <c r="NF33" s="0"/>
+      <c r="NG33" s="0"/>
+      <c r="NH33" s="0"/>
+      <c r="NI33" s="0"/>
+      <c r="NJ33" s="0"/>
+      <c r="NK33" s="0"/>
+      <c r="NL33" s="0"/>
+      <c r="NM33" s="0"/>
+      <c r="NN33" s="0"/>
+      <c r="NO33" s="0"/>
+      <c r="NP33" s="0"/>
+      <c r="NQ33" s="0"/>
+      <c r="NR33" s="0"/>
+      <c r="NS33" s="0"/>
+      <c r="NT33" s="0"/>
+      <c r="NU33" s="0"/>
+      <c r="NV33" s="0"/>
+      <c r="NW33" s="0"/>
+      <c r="NX33" s="0"/>
+      <c r="NY33" s="0"/>
+      <c r="NZ33" s="0"/>
+      <c r="OA33" s="0"/>
+      <c r="OB33" s="0"/>
+      <c r="OC33" s="0"/>
+      <c r="OD33" s="0"/>
+      <c r="OE33" s="0"/>
+      <c r="OF33" s="0"/>
+      <c r="OG33" s="0"/>
+      <c r="OH33" s="0"/>
+      <c r="OI33" s="0"/>
+      <c r="OJ33" s="0"/>
+      <c r="OK33" s="0"/>
+      <c r="OL33" s="0"/>
+      <c r="OM33" s="0"/>
+      <c r="ON33" s="0"/>
+      <c r="OO33" s="0"/>
+      <c r="OP33" s="0"/>
+      <c r="OQ33" s="0"/>
+      <c r="OR33" s="0"/>
+      <c r="OS33" s="0"/>
+      <c r="OT33" s="0"/>
+      <c r="OU33" s="0"/>
+      <c r="OV33" s="0"/>
+      <c r="OW33" s="0"/>
+      <c r="OX33" s="0"/>
+      <c r="OY33" s="0"/>
+      <c r="OZ33" s="0"/>
+      <c r="PA33" s="0"/>
+      <c r="PB33" s="0"/>
+      <c r="PC33" s="0"/>
+      <c r="PD33" s="0"/>
+      <c r="PE33" s="0"/>
+      <c r="PF33" s="0"/>
+      <c r="PG33" s="0"/>
+      <c r="PH33" s="0"/>
+      <c r="PI33" s="0"/>
+      <c r="PJ33" s="0"/>
+      <c r="PK33" s="0"/>
+      <c r="PL33" s="0"/>
+      <c r="PM33" s="0"/>
+      <c r="PN33" s="0"/>
+      <c r="PO33" s="0"/>
+      <c r="PP33" s="0"/>
+      <c r="PQ33" s="0"/>
+      <c r="PR33" s="0"/>
+      <c r="PS33" s="0"/>
+      <c r="PT33" s="0"/>
+      <c r="PU33" s="0"/>
+      <c r="PV33" s="0"/>
+      <c r="PW33" s="0"/>
+      <c r="PX33" s="0"/>
+      <c r="PY33" s="0"/>
+      <c r="PZ33" s="0"/>
+      <c r="QA33" s="0"/>
+      <c r="QB33" s="0"/>
+      <c r="QC33" s="0"/>
+      <c r="QD33" s="0"/>
+      <c r="QE33" s="0"/>
+      <c r="QF33" s="0"/>
+      <c r="QG33" s="0"/>
+      <c r="QH33" s="0"/>
+      <c r="QI33" s="0"/>
+      <c r="QJ33" s="0"/>
+      <c r="QK33" s="0"/>
+      <c r="QL33" s="0"/>
+      <c r="QM33" s="0"/>
+      <c r="QN33" s="0"/>
+      <c r="QO33" s="0"/>
+      <c r="QP33" s="0"/>
+      <c r="QQ33" s="0"/>
+      <c r="QR33" s="0"/>
+      <c r="QS33" s="0"/>
+      <c r="QT33" s="0"/>
+      <c r="QU33" s="0"/>
+      <c r="QV33" s="0"/>
+      <c r="QW33" s="0"/>
+      <c r="QX33" s="0"/>
+      <c r="QY33" s="0"/>
+      <c r="QZ33" s="0"/>
+      <c r="RA33" s="0"/>
+      <c r="RB33" s="0"/>
+      <c r="RC33" s="0"/>
+      <c r="RD33" s="0"/>
+      <c r="RE33" s="0"/>
+      <c r="RF33" s="0"/>
+      <c r="RG33" s="0"/>
+      <c r="RH33" s="0"/>
+      <c r="RI33" s="0"/>
+      <c r="RJ33" s="0"/>
+      <c r="RK33" s="0"/>
+      <c r="RL33" s="0"/>
+      <c r="RM33" s="0"/>
+      <c r="RN33" s="0"/>
+      <c r="RO33" s="0"/>
+      <c r="RP33" s="0"/>
+      <c r="RQ33" s="0"/>
+      <c r="RR33" s="0"/>
+      <c r="RS33" s="0"/>
+      <c r="RT33" s="0"/>
+      <c r="RU33" s="0"/>
+      <c r="RV33" s="0"/>
+      <c r="RW33" s="0"/>
+      <c r="RX33" s="0"/>
+      <c r="RY33" s="0"/>
+      <c r="RZ33" s="0"/>
+      <c r="SA33" s="0"/>
+      <c r="SB33" s="0"/>
+      <c r="SC33" s="0"/>
+      <c r="SD33" s="0"/>
+      <c r="SE33" s="0"/>
+      <c r="SF33" s="0"/>
+      <c r="SG33" s="0"/>
+      <c r="SH33" s="0"/>
+      <c r="SI33" s="0"/>
+      <c r="SJ33" s="0"/>
+      <c r="SK33" s="0"/>
+      <c r="SL33" s="0"/>
+      <c r="SM33" s="0"/>
+      <c r="SN33" s="0"/>
+      <c r="SO33" s="0"/>
+      <c r="SP33" s="0"/>
+      <c r="SQ33" s="0"/>
+      <c r="SR33" s="0"/>
+      <c r="SS33" s="0"/>
+      <c r="ST33" s="0"/>
+      <c r="SU33" s="0"/>
+      <c r="SV33" s="0"/>
+      <c r="SW33" s="0"/>
+      <c r="SX33" s="0"/>
+      <c r="SY33" s="0"/>
+      <c r="SZ33" s="0"/>
+      <c r="TA33" s="0"/>
+      <c r="TB33" s="0"/>
+      <c r="TC33" s="0"/>
+      <c r="TD33" s="0"/>
+      <c r="TE33" s="0"/>
+      <c r="TF33" s="0"/>
+      <c r="TG33" s="0"/>
+      <c r="TH33" s="0"/>
+      <c r="TI33" s="0"/>
+      <c r="TJ33" s="0"/>
+      <c r="TK33" s="0"/>
+      <c r="TL33" s="0"/>
+      <c r="TM33" s="0"/>
+      <c r="TN33" s="0"/>
+      <c r="TO33" s="0"/>
+      <c r="TP33" s="0"/>
+      <c r="TQ33" s="0"/>
+      <c r="TR33" s="0"/>
+      <c r="TS33" s="0"/>
+      <c r="TT33" s="0"/>
+      <c r="TU33" s="0"/>
+      <c r="TV33" s="0"/>
+      <c r="TW33" s="0"/>
+      <c r="TX33" s="0"/>
+      <c r="TY33" s="0"/>
+      <c r="TZ33" s="0"/>
+      <c r="UA33" s="0"/>
+      <c r="UB33" s="0"/>
+      <c r="UC33" s="0"/>
+      <c r="UD33" s="0"/>
+      <c r="UE33" s="0"/>
+      <c r="UF33" s="0"/>
+      <c r="UG33" s="0"/>
+      <c r="UH33" s="0"/>
+      <c r="UI33" s="0"/>
+      <c r="UJ33" s="0"/>
+      <c r="UK33" s="0"/>
+      <c r="UL33" s="0"/>
+      <c r="UM33" s="0"/>
+      <c r="UN33" s="0"/>
+      <c r="UO33" s="0"/>
+      <c r="UP33" s="0"/>
+      <c r="UQ33" s="0"/>
+      <c r="UR33" s="0"/>
+      <c r="US33" s="0"/>
+      <c r="UT33" s="0"/>
+      <c r="UU33" s="0"/>
+      <c r="UV33" s="0"/>
+      <c r="UW33" s="0"/>
+      <c r="UX33" s="0"/>
+      <c r="UY33" s="0"/>
+      <c r="UZ33" s="0"/>
+      <c r="VA33" s="0"/>
+      <c r="VB33" s="0"/>
+      <c r="VC33" s="0"/>
+      <c r="VD33" s="0"/>
+      <c r="VE33" s="0"/>
+      <c r="VF33" s="0"/>
+      <c r="VG33" s="0"/>
+      <c r="VH33" s="0"/>
+      <c r="VI33" s="0"/>
+      <c r="VJ33" s="0"/>
+      <c r="VK33" s="0"/>
+      <c r="VL33" s="0"/>
+      <c r="VM33" s="0"/>
+      <c r="VN33" s="0"/>
+      <c r="VO33" s="0"/>
+      <c r="VP33" s="0"/>
+      <c r="VQ33" s="0"/>
+      <c r="VR33" s="0"/>
+      <c r="VS33" s="0"/>
+      <c r="VT33" s="0"/>
+      <c r="VU33" s="0"/>
+      <c r="VV33" s="0"/>
+      <c r="VW33" s="0"/>
+      <c r="VX33" s="0"/>
+      <c r="VY33" s="0"/>
+      <c r="VZ33" s="0"/>
+      <c r="WA33" s="0"/>
+      <c r="WB33" s="0"/>
+      <c r="WC33" s="0"/>
+      <c r="WD33" s="0"/>
+      <c r="WE33" s="0"/>
+      <c r="WF33" s="0"/>
+      <c r="WG33" s="0"/>
+      <c r="WH33" s="0"/>
+      <c r="WI33" s="0"/>
+      <c r="WJ33" s="0"/>
+      <c r="WK33" s="0"/>
+      <c r="WL33" s="0"/>
+      <c r="WM33" s="0"/>
+      <c r="WN33" s="0"/>
+      <c r="WO33" s="0"/>
+      <c r="WP33" s="0"/>
+      <c r="WQ33" s="0"/>
+      <c r="WR33" s="0"/>
+      <c r="WS33" s="0"/>
+      <c r="WT33" s="0"/>
+      <c r="WU33" s="0"/>
+      <c r="WV33" s="0"/>
+      <c r="WW33" s="0"/>
+      <c r="WX33" s="0"/>
+      <c r="WY33" s="0"/>
+      <c r="WZ33" s="0"/>
+      <c r="XA33" s="0"/>
+      <c r="XB33" s="0"/>
+      <c r="XC33" s="0"/>
+      <c r="XD33" s="0"/>
+      <c r="XE33" s="0"/>
+      <c r="XF33" s="0"/>
+      <c r="XG33" s="0"/>
+      <c r="XH33" s="0"/>
+      <c r="XI33" s="0"/>
+      <c r="XJ33" s="0"/>
+      <c r="XK33" s="0"/>
+      <c r="XL33" s="0"/>
+      <c r="XM33" s="0"/>
+      <c r="XN33" s="0"/>
+      <c r="XO33" s="0"/>
+      <c r="XP33" s="0"/>
+      <c r="XQ33" s="0"/>
+      <c r="XR33" s="0"/>
+      <c r="XS33" s="0"/>
+      <c r="XT33" s="0"/>
+      <c r="XU33" s="0"/>
+      <c r="XV33" s="0"/>
+      <c r="XW33" s="0"/>
+      <c r="XX33" s="0"/>
+      <c r="XY33" s="0"/>
+      <c r="XZ33" s="0"/>
+      <c r="YA33" s="0"/>
+      <c r="YB33" s="0"/>
+      <c r="YC33" s="0"/>
+      <c r="YD33" s="0"/>
+      <c r="YE33" s="0"/>
+      <c r="YF33" s="0"/>
+      <c r="YG33" s="0"/>
+      <c r="YH33" s="0"/>
+      <c r="YI33" s="0"/>
+      <c r="YJ33" s="0"/>
+      <c r="YK33" s="0"/>
+      <c r="YL33" s="0"/>
+      <c r="YM33" s="0"/>
+      <c r="YN33" s="0"/>
+      <c r="YO33" s="0"/>
+      <c r="YP33" s="0"/>
+      <c r="YQ33" s="0"/>
+      <c r="YR33" s="0"/>
+      <c r="YS33" s="0"/>
+      <c r="YT33" s="0"/>
+      <c r="YU33" s="0"/>
+      <c r="YV33" s="0"/>
+      <c r="YW33" s="0"/>
+      <c r="YX33" s="0"/>
+      <c r="YY33" s="0"/>
+      <c r="YZ33" s="0"/>
+      <c r="ZA33" s="0"/>
+      <c r="ZB33" s="0"/>
+      <c r="ZC33" s="0"/>
+      <c r="ZD33" s="0"/>
+      <c r="ZE33" s="0"/>
+      <c r="ZF33" s="0"/>
+      <c r="ZG33" s="0"/>
+      <c r="ZH33" s="0"/>
+      <c r="ZI33" s="0"/>
+      <c r="ZJ33" s="0"/>
+      <c r="ZK33" s="0"/>
+      <c r="ZL33" s="0"/>
+      <c r="ZM33" s="0"/>
+      <c r="ZN33" s="0"/>
+      <c r="ZO33" s="0"/>
+      <c r="ZP33" s="0"/>
+      <c r="ZQ33" s="0"/>
+      <c r="ZR33" s="0"/>
+      <c r="ZS33" s="0"/>
+      <c r="ZT33" s="0"/>
+      <c r="ZU33" s="0"/>
+      <c r="ZV33" s="0"/>
+      <c r="ZW33" s="0"/>
+      <c r="ZX33" s="0"/>
+      <c r="ZY33" s="0"/>
+      <c r="ZZ33" s="0"/>
+      <c r="AAA33" s="0"/>
+      <c r="AAB33" s="0"/>
+      <c r="AAC33" s="0"/>
+      <c r="AAD33" s="0"/>
+      <c r="AAE33" s="0"/>
+      <c r="AAF33" s="0"/>
+      <c r="AAG33" s="0"/>
+      <c r="AAH33" s="0"/>
+      <c r="AAI33" s="0"/>
+      <c r="AAJ33" s="0"/>
+      <c r="AAK33" s="0"/>
+      <c r="AAL33" s="0"/>
+      <c r="AAM33" s="0"/>
+      <c r="AAN33" s="0"/>
+      <c r="AAO33" s="0"/>
+      <c r="AAP33" s="0"/>
+      <c r="AAQ33" s="0"/>
+      <c r="AAR33" s="0"/>
+      <c r="AAS33" s="0"/>
+      <c r="AAT33" s="0"/>
+      <c r="AAU33" s="0"/>
+      <c r="AAV33" s="0"/>
+      <c r="AAW33" s="0"/>
+      <c r="AAX33" s="0"/>
+      <c r="AAY33" s="0"/>
+      <c r="AAZ33" s="0"/>
+      <c r="ABA33" s="0"/>
+      <c r="ABB33" s="0"/>
+      <c r="ABC33" s="0"/>
+      <c r="ABD33" s="0"/>
+      <c r="ABE33" s="0"/>
+      <c r="ABF33" s="0"/>
+      <c r="ABG33" s="0"/>
+      <c r="ABH33" s="0"/>
+      <c r="ABI33" s="0"/>
+      <c r="ABJ33" s="0"/>
+      <c r="ABK33" s="0"/>
+      <c r="ABL33" s="0"/>
+      <c r="ABM33" s="0"/>
+      <c r="ABN33" s="0"/>
+      <c r="ABO33" s="0"/>
+      <c r="ABP33" s="0"/>
+      <c r="ABQ33" s="0"/>
+      <c r="ABR33" s="0"/>
+      <c r="ABS33" s="0"/>
+      <c r="ABT33" s="0"/>
+      <c r="ABU33" s="0"/>
+      <c r="ABV33" s="0"/>
+      <c r="ABW33" s="0"/>
+      <c r="ABX33" s="0"/>
+      <c r="ABY33" s="0"/>
+      <c r="ABZ33" s="0"/>
+      <c r="ACA33" s="0"/>
+      <c r="ACB33" s="0"/>
+      <c r="ACC33" s="0"/>
+      <c r="ACD33" s="0"/>
+      <c r="ACE33" s="0"/>
+      <c r="ACF33" s="0"/>
+      <c r="ACG33" s="0"/>
+      <c r="ACH33" s="0"/>
+      <c r="ACI33" s="0"/>
+      <c r="ACJ33" s="0"/>
+      <c r="ACK33" s="0"/>
+      <c r="ACL33" s="0"/>
+      <c r="ACM33" s="0"/>
+      <c r="ACN33" s="0"/>
+      <c r="ACO33" s="0"/>
+      <c r="ACP33" s="0"/>
+      <c r="ACQ33" s="0"/>
+      <c r="ACR33" s="0"/>
+      <c r="ACS33" s="0"/>
+      <c r="ACT33" s="0"/>
+      <c r="ACU33" s="0"/>
+      <c r="ACV33" s="0"/>
+      <c r="ACW33" s="0"/>
+      <c r="ACX33" s="0"/>
+      <c r="ACY33" s="0"/>
+      <c r="ACZ33" s="0"/>
+      <c r="ADA33" s="0"/>
+      <c r="ADB33" s="0"/>
+      <c r="ADC33" s="0"/>
+      <c r="ADD33" s="0"/>
+      <c r="ADE33" s="0"/>
+      <c r="ADF33" s="0"/>
+      <c r="ADG33" s="0"/>
+      <c r="ADH33" s="0"/>
+      <c r="ADI33" s="0"/>
+      <c r="ADJ33" s="0"/>
+      <c r="ADK33" s="0"/>
+      <c r="ADL33" s="0"/>
+      <c r="ADM33" s="0"/>
+      <c r="ADN33" s="0"/>
+      <c r="ADO33" s="0"/>
+      <c r="ADP33" s="0"/>
+      <c r="ADQ33" s="0"/>
+      <c r="ADR33" s="0"/>
+      <c r="ADS33" s="0"/>
+      <c r="ADT33" s="0"/>
+      <c r="ADU33" s="0"/>
+      <c r="ADV33" s="0"/>
+      <c r="ADW33" s="0"/>
+      <c r="ADX33" s="0"/>
+      <c r="ADY33" s="0"/>
+      <c r="ADZ33" s="0"/>
+      <c r="AEA33" s="0"/>
+      <c r="AEB33" s="0"/>
+      <c r="AEC33" s="0"/>
+      <c r="AED33" s="0"/>
+      <c r="AEE33" s="0"/>
+      <c r="AEF33" s="0"/>
+      <c r="AEG33" s="0"/>
+      <c r="AEH33" s="0"/>
+      <c r="AEI33" s="0"/>
+      <c r="AEJ33" s="0"/>
+      <c r="AEK33" s="0"/>
+      <c r="AEL33" s="0"/>
+      <c r="AEM33" s="0"/>
+      <c r="AEN33" s="0"/>
+      <c r="AEO33" s="0"/>
+      <c r="AEP33" s="0"/>
+      <c r="AEQ33" s="0"/>
+      <c r="AER33" s="0"/>
+      <c r="AES33" s="0"/>
+      <c r="AET33" s="0"/>
+      <c r="AEU33" s="0"/>
+      <c r="AEV33" s="0"/>
+      <c r="AEW33" s="0"/>
+      <c r="AEX33" s="0"/>
+      <c r="AEY33" s="0"/>
+      <c r="AEZ33" s="0"/>
+      <c r="AFA33" s="0"/>
+      <c r="AFB33" s="0"/>
+      <c r="AFC33" s="0"/>
+      <c r="AFD33" s="0"/>
+      <c r="AFE33" s="0"/>
+      <c r="AFF33" s="0"/>
+      <c r="AFG33" s="0"/>
+      <c r="AFH33" s="0"/>
+      <c r="AFI33" s="0"/>
+      <c r="AFJ33" s="0"/>
+      <c r="AFK33" s="0"/>
+      <c r="AFL33" s="0"/>
+      <c r="AFM33" s="0"/>
+      <c r="AFN33" s="0"/>
+      <c r="AFO33" s="0"/>
+      <c r="AFP33" s="0"/>
+      <c r="AFQ33" s="0"/>
+      <c r="AFR33" s="0"/>
+      <c r="AFS33" s="0"/>
+      <c r="AFT33" s="0"/>
+      <c r="AFU33" s="0"/>
+      <c r="AFV33" s="0"/>
+      <c r="AFW33" s="0"/>
+      <c r="AFX33" s="0"/>
+      <c r="AFY33" s="0"/>
+      <c r="AFZ33" s="0"/>
+      <c r="AGA33" s="0"/>
+      <c r="AGB33" s="0"/>
+      <c r="AGC33" s="0"/>
+      <c r="AGD33" s="0"/>
+      <c r="AGE33" s="0"/>
+      <c r="AGF33" s="0"/>
+      <c r="AGG33" s="0"/>
+      <c r="AGH33" s="0"/>
+      <c r="AGI33" s="0"/>
+      <c r="AGJ33" s="0"/>
+      <c r="AGK33" s="0"/>
+      <c r="AGL33" s="0"/>
+      <c r="AGM33" s="0"/>
+      <c r="AGN33" s="0"/>
+      <c r="AGO33" s="0"/>
+      <c r="AGP33" s="0"/>
+      <c r="AGQ33" s="0"/>
+      <c r="AGR33" s="0"/>
+      <c r="AGS33" s="0"/>
+      <c r="AGT33" s="0"/>
+      <c r="AGU33" s="0"/>
+      <c r="AGV33" s="0"/>
+      <c r="AGW33" s="0"/>
+      <c r="AGX33" s="0"/>
+      <c r="AGY33" s="0"/>
+      <c r="AGZ33" s="0"/>
+      <c r="AHA33" s="0"/>
+      <c r="AHB33" s="0"/>
+      <c r="AHC33" s="0"/>
+      <c r="AHD33" s="0"/>
+      <c r="AHE33" s="0"/>
+      <c r="AHF33" s="0"/>
+      <c r="AHG33" s="0"/>
+      <c r="AHH33" s="0"/>
+      <c r="AHI33" s="0"/>
+      <c r="AHJ33" s="0"/>
+      <c r="AHK33" s="0"/>
+      <c r="AHL33" s="0"/>
+      <c r="AHM33" s="0"/>
+      <c r="AHN33" s="0"/>
+      <c r="AHO33" s="0"/>
+      <c r="AHP33" s="0"/>
+      <c r="AHQ33" s="0"/>
+      <c r="AHR33" s="0"/>
+      <c r="AHS33" s="0"/>
+      <c r="AHT33" s="0"/>
+      <c r="AHU33" s="0"/>
+      <c r="AHV33" s="0"/>
+      <c r="AHW33" s="0"/>
+      <c r="AHX33" s="0"/>
+      <c r="AHY33" s="0"/>
+      <c r="AHZ33" s="0"/>
+      <c r="AIA33" s="0"/>
+      <c r="AIB33" s="0"/>
+      <c r="AIC33" s="0"/>
+      <c r="AID33" s="0"/>
+      <c r="AIE33" s="0"/>
+      <c r="AIF33" s="0"/>
+      <c r="AIG33" s="0"/>
+      <c r="AIH33" s="0"/>
+      <c r="AII33" s="0"/>
+      <c r="AIJ33" s="0"/>
+      <c r="AIK33" s="0"/>
+      <c r="AIL33" s="0"/>
+      <c r="AIM33" s="0"/>
+      <c r="AIN33" s="0"/>
+      <c r="AIO33" s="0"/>
+      <c r="AIP33" s="0"/>
+      <c r="AIQ33" s="0"/>
+      <c r="AIR33" s="0"/>
+      <c r="AIS33" s="0"/>
+      <c r="AIT33" s="0"/>
+      <c r="AIU33" s="0"/>
+      <c r="AIV33" s="0"/>
+      <c r="AIW33" s="0"/>
+      <c r="AIX33" s="0"/>
+      <c r="AIY33" s="0"/>
+      <c r="AIZ33" s="0"/>
+      <c r="AJA33" s="0"/>
+      <c r="AJB33" s="0"/>
+      <c r="AJC33" s="0"/>
+      <c r="AJD33" s="0"/>
+      <c r="AJE33" s="0"/>
+      <c r="AJF33" s="0"/>
+      <c r="AJG33" s="0"/>
+      <c r="AJH33" s="0"/>
+      <c r="AJI33" s="0"/>
+      <c r="AJJ33" s="0"/>
+      <c r="AJK33" s="0"/>
+      <c r="AJL33" s="0"/>
+      <c r="AJM33" s="0"/>
+      <c r="AJN33" s="0"/>
+      <c r="AJO33" s="0"/>
+      <c r="AJP33" s="0"/>
+      <c r="AJQ33" s="0"/>
+      <c r="AJR33" s="0"/>
+      <c r="AJS33" s="0"/>
+      <c r="AJT33" s="0"/>
+      <c r="AJU33" s="0"/>
+      <c r="AJV33" s="0"/>
+      <c r="AJW33" s="0"/>
+      <c r="AJX33" s="0"/>
+      <c r="AJY33" s="0"/>
+      <c r="AJZ33" s="0"/>
+      <c r="AKA33" s="0"/>
+      <c r="AKB33" s="0"/>
+      <c r="AKC33" s="0"/>
+      <c r="AKD33" s="0"/>
+      <c r="AKE33" s="0"/>
+      <c r="AKF33" s="0"/>
+      <c r="AKG33" s="0"/>
+      <c r="AKH33" s="0"/>
+      <c r="AKI33" s="0"/>
+      <c r="AKJ33" s="0"/>
+      <c r="AKK33" s="0"/>
+      <c r="AKL33" s="0"/>
+      <c r="AKM33" s="0"/>
+      <c r="AKN33" s="0"/>
+      <c r="AKO33" s="0"/>
+      <c r="AKP33" s="0"/>
+      <c r="AKQ33" s="0"/>
+      <c r="AKR33" s="0"/>
+      <c r="AKS33" s="0"/>
+      <c r="AKT33" s="0"/>
+      <c r="AKU33" s="0"/>
+      <c r="AKV33" s="0"/>
+      <c r="AKW33" s="0"/>
+      <c r="AKX33" s="0"/>
+      <c r="AKY33" s="0"/>
+      <c r="AKZ33" s="0"/>
+      <c r="ALA33" s="0"/>
+      <c r="ALB33" s="0"/>
+      <c r="ALC33" s="0"/>
+      <c r="ALD33" s="0"/>
+      <c r="ALE33" s="0"/>
+      <c r="ALF33" s="0"/>
+      <c r="ALG33" s="0"/>
+      <c r="ALH33" s="0"/>
+      <c r="ALI33" s="0"/>
+      <c r="ALJ33" s="0"/>
+      <c r="ALK33" s="0"/>
+      <c r="ALL33" s="0"/>
+      <c r="ALM33" s="0"/>
+      <c r="ALN33" s="0"/>
+      <c r="ALO33" s="0"/>
+      <c r="ALP33" s="0"/>
+      <c r="ALQ33" s="0"/>
+      <c r="ALR33" s="0"/>
+      <c r="ALS33" s="0"/>
+      <c r="ALT33" s="0"/>
+      <c r="ALU33" s="0"/>
+      <c r="ALV33" s="0"/>
+      <c r="ALW33" s="0"/>
+      <c r="ALX33" s="0"/>
+      <c r="ALY33" s="0"/>
+      <c r="ALZ33" s="0"/>
+      <c r="AMA33" s="0"/>
+      <c r="AMB33" s="0"/>
+    </row>
     <row r="43" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="44" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -34090,16 +35116,16 @@
   <dimension ref="1:85"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
+      <selection pane="topLeft" activeCell="B62" activeCellId="1" sqref="19:19 B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="16" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.57085020242915"/>
@@ -34107,7 +35133,7 @@
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="20" min="19" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
@@ -39252,15 +40278,15 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V4" activeCellId="0" sqref="V4"/>
+      <selection pane="topLeft" activeCell="V4" activeCellId="1" sqref="19:19 V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.5263157894737"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
@@ -39769,17 +40795,17 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U2" activeCellId="0" sqref="U2"/>
+      <selection pane="topLeft" activeCell="U2" activeCellId="1" sqref="19:19 U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -40287,15 +41313,15 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="19:19 T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.663967611336"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.2712550607287"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="0" width="13.3886639676113"/>
@@ -41475,20 +42501,20 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="19:19 T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.17004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.7044534412955"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -42229,19 +43255,19 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="19:19 E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSIN_SAND/Data/Template.xlsx
+++ b/Projects/MARSIN_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,6 +40,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="160">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -456,16 +457,8 @@
     <t xml:space="preserve">Weaning, Puppy, Young Adult, Adult, Senior</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">80%
+    <t xml:space="preserve">80%
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Survey ID</t>
@@ -553,7 +546,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -624,12 +617,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -795,7 +782,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -819,8 +806,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1041,10 +1032,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1129,22 +1116,35 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1223,19 +1223,19 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="E33" activeCellId="1" sqref="31:31 E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="36.2064777327935"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="1016" min="10" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.57085020242915"/>
   </cols>
@@ -36179,16 +36179,16 @@
   <dimension ref="1:85"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B62" activeCellId="0" sqref="B62"/>
+      <selection pane="topLeft" activeCell="B62" activeCellId="1" sqref="31:31 B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.57085020242915"/>
@@ -36196,7 +36196,7 @@
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="20" min="19" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
@@ -41341,15 +41341,15 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V4" activeCellId="0" sqref="V4"/>
+      <selection pane="topLeft" activeCell="V4" activeCellId="1" sqref="31:31 V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.17004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
@@ -41857,18 +41857,18 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S10" activeCellId="0" sqref="S10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S10" activeCellId="1" sqref="31:31 S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -42340,7 +42340,7 @@
       <c r="R8" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="S8" s="55" t="s">
+      <c r="S8" s="36" t="s">
         <v>134</v>
       </c>
       <c r="T8" s="35" t="s">
@@ -42376,15 +42376,15 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="31:31 T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="64.8056680161943"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.3441295546559"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="0" width="13.3886639676113"/>
@@ -42400,31 +42400,31 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="56" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="57" t="s">
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="56" t="s">
         <v>46</v>
       </c>
     </row>
@@ -42485,1056 +42485,1056 @@
       <c r="T2" s="37"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="59" t="n">
+      <c r="C3" s="58" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="61" t="s">
+      <c r="I3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="61" t="s">
+      <c r="J3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="R3" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="62" t="s">
+      <c r="N3" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="61" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="59" t="n">
+      <c r="C4" s="58" t="n">
         <v>6</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="62" t="s">
+      <c r="F4" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="62" t="s">
+      <c r="R4" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="61" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="59" t="n">
+      <c r="C5" s="58" t="n">
         <v>9</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="62" t="s">
+      <c r="F5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="T5" s="62" t="s">
+      <c r="S5" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="61" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="59" t="n">
+      <c r="C6" s="58" t="n">
         <v>12</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" s="62" t="s">
+      <c r="F6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="T6" s="62" t="s">
+      <c r="T6" s="61" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="59" t="n">
+      <c r="C7" s="58" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="R7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="S7" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="T7" s="62" t="s">
+      <c r="F7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7" s="61" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="59" t="n">
+      <c r="C8" s="58" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="61" t="s">
+      <c r="I8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="61" t="s">
+      <c r="J8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="61" t="s">
+      <c r="K8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="61" t="s">
+      <c r="L8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="61" t="s">
+      <c r="M8" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="S8" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="T8" s="62" t="s">
+      <c r="N8" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="61" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="59" t="n">
+      <c r="C9" s="58" t="n">
         <v>7</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F9" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="64" t="s">
+      <c r="F9" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="64" t="s">
+      <c r="O9" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="64" t="s">
+      <c r="P9" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="Q9" s="64" t="s">
+      <c r="Q9" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="S9" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="T9" s="64" t="s">
+      <c r="R9" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="T9" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="59" t="n">
+      <c r="C10" s="58" t="n">
         <v>10</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F10" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="R10" s="64" t="s">
+      <c r="F10" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="T10" s="64" t="s">
+      <c r="S10" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="59" t="n">
+      <c r="C11" s="58" t="n">
         <v>13</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="P11" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="R11" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" s="64" t="s">
+      <c r="F11" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="T11" s="64" t="s">
+      <c r="T11" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="59" t="n">
+      <c r="C12" s="58" t="n">
         <v>16</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="62" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="P12" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q12" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="R12" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="T12" s="64" t="s">
+      <c r="F12" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="R12" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="T12" s="63" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="57" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="59" t="n">
+      <c r="C13" s="58" t="n">
         <v>3</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J13" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="61" t="s">
+      <c r="K13" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="61" t="s">
+      <c r="L13" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="61" t="s">
+      <c r="M13" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="N13" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="P13" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q13" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="R13" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="T13" s="62" t="s">
+      <c r="N13" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13" s="61" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="64" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="59" t="n">
+      <c r="C14" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G14" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="61" t="s">
+      <c r="I14" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J14" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="61" t="s">
+      <c r="K14" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="61" t="s">
+      <c r="L14" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="61" t="s">
+      <c r="M14" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="O14" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q14" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="R14" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="S14" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="T14" s="62" t="s">
+      <c r="N14" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="R14" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="T14" s="61" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="64" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="59" t="n">
+      <c r="C15" s="58" t="n">
         <v>5</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="61" t="s">
+      <c r="H15" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="61" t="s">
+      <c r="I15" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="61" t="s">
+      <c r="L15" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="61" t="s">
+      <c r="M15" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="N15" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q15" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="R15" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="S15" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="T15" s="62" t="s">
+      <c r="N15" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q15" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="R15" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="T15" s="61" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="64" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="63" t="n">
+      <c r="C16" s="62" t="n">
         <v>8</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" s="64" t="s">
+      <c r="F16" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="64" t="s">
+      <c r="O16" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="P16" s="64" t="s">
+      <c r="P16" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="Q16" s="64" t="s">
+      <c r="Q16" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="R16" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="S16" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="T16" s="64" t="s">
+      <c r="R16" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="T16" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="64" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="59" t="n">
+      <c r="C17" s="58" t="n">
         <v>11</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="M17" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="O17" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="R17" s="64" t="s">
+      <c r="F17" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q17" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="R17" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="S17" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="T17" s="64" t="s">
+      <c r="S17" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="T17" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="20.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="64" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="59" t="n">
+      <c r="C18" s="58" t="n">
         <v>14</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="N18" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="O18" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q18" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="R18" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="S18" s="64" t="s">
+      <c r="F18" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N18" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q18" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="R18" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="T18" s="64" t="s">
+      <c r="T18" s="63" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="64" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="59" t="n">
+      <c r="C19" s="58" t="n">
         <v>17</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F19" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="O19" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="P19" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q19" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="R19" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="S19" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="T19" s="64" t="s">
+      <c r="F19" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="P19" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="R19" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="T19" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -43564,20 +43564,20 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="1" sqref="31:31 T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.2429149797571"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -43589,92 +43589,92 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="66" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="67" t="s">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="S1" s="67" t="s">
+      <c r="S1" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="66" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="70" t="s">
+      <c r="M2" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="66" t="s">
+      <c r="N2" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="67" t="s">
+      <c r="P2" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="Q2" s="67" t="s">
+      <c r="Q2" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="49" t="s">
@@ -43689,54 +43689,54 @@
       <c r="E3" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="72" t="n">
+      <c r="F3" s="71" t="n">
         <v>0.55</v>
       </c>
-      <c r="G3" s="72" t="n">
+      <c r="G3" s="71" t="n">
         <v>0.55</v>
       </c>
-      <c r="H3" s="72" t="n">
+      <c r="H3" s="71" t="n">
         <v>0.55</v>
       </c>
-      <c r="I3" s="72" t="n">
+      <c r="I3" s="71" t="n">
         <v>0.55</v>
       </c>
-      <c r="J3" s="72" t="n">
+      <c r="J3" s="71" t="n">
         <v>0.55</v>
       </c>
-      <c r="K3" s="72" t="n">
+      <c r="K3" s="71" t="n">
         <v>0.55</v>
       </c>
-      <c r="L3" s="72" t="n">
+      <c r="L3" s="71" t="n">
         <v>0.55</v>
       </c>
-      <c r="M3" s="72" t="n">
+      <c r="M3" s="71" t="n">
         <v>0.55</v>
       </c>
-      <c r="N3" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q3" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="R3" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="T3" s="73" t="s">
+      <c r="N3" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="T3" s="72" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="49" t="s">
@@ -43751,54 +43751,54 @@
       <c r="E4" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="74" t="n">
+      <c r="F4" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="73" t="n">
         <v>0.9</v>
       </c>
-      <c r="O4" s="74" t="n">
+      <c r="O4" s="73" t="n">
         <v>0.9</v>
       </c>
-      <c r="P4" s="74" t="n">
+      <c r="P4" s="73" t="n">
         <v>0.9</v>
       </c>
-      <c r="Q4" s="74" t="n">
+      <c r="Q4" s="73" t="n">
         <v>0.9</v>
       </c>
-      <c r="R4" s="74" t="n">
+      <c r="R4" s="73" t="n">
         <v>0.8</v>
       </c>
-      <c r="S4" s="74" t="n">
+      <c r="S4" s="73" t="n">
         <v>0.9</v>
       </c>
-      <c r="T4" s="74" t="n">
+      <c r="T4" s="73" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="49" t="s">
@@ -43810,57 +43810,57 @@
       <c r="D5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="72" t="n">
+      <c r="F5" s="71" t="n">
         <v>0.75</v>
       </c>
-      <c r="G5" s="72" t="n">
+      <c r="G5" s="71" t="n">
         <v>0.75</v>
       </c>
-      <c r="H5" s="72" t="n">
+      <c r="H5" s="71" t="n">
         <v>0.75</v>
       </c>
-      <c r="I5" s="72" t="n">
+      <c r="I5" s="71" t="n">
         <v>0.75</v>
       </c>
-      <c r="J5" s="72" t="n">
+      <c r="J5" s="71" t="n">
         <v>0.75</v>
       </c>
-      <c r="K5" s="72" t="n">
+      <c r="K5" s="71" t="n">
         <v>0.75</v>
       </c>
-      <c r="L5" s="72" t="n">
+      <c r="L5" s="71" t="n">
         <v>0.75</v>
       </c>
-      <c r="M5" s="72" t="n">
+      <c r="M5" s="71" t="n">
         <v>0.75</v>
       </c>
-      <c r="N5" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="T5" s="73" t="s">
+      <c r="N5" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="72" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="49" t="s">
@@ -43875,54 +43875,54 @@
       <c r="E6" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="76" t="n">
+      <c r="F6" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="75" t="n">
         <v>0.9</v>
       </c>
-      <c r="O6" s="76" t="n">
+      <c r="O6" s="75" t="n">
         <v>0.9</v>
       </c>
-      <c r="P6" s="76" t="n">
+      <c r="P6" s="75" t="n">
         <v>0.9</v>
       </c>
-      <c r="Q6" s="76" t="n">
+      <c r="Q6" s="75" t="n">
         <v>0.9</v>
       </c>
-      <c r="R6" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="S6" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="T6" s="73" t="s">
+      <c r="R6" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="T6" s="72" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="49" t="s">
@@ -43937,54 +43937,54 @@
       <c r="E7" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="R7" s="76" t="n">
+      <c r="F7" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="75" t="n">
         <v>0.8</v>
       </c>
-      <c r="S7" s="76" t="n">
+      <c r="S7" s="75" t="n">
         <v>0.9</v>
       </c>
-      <c r="T7" s="76" t="n">
+      <c r="T7" s="75" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="49" t="s">
@@ -43999,54 +43999,54 @@
       <c r="E8" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="76" t="n">
+      <c r="F8" s="75" t="n">
         <v>0.3</v>
       </c>
-      <c r="G8" s="76" t="n">
+      <c r="G8" s="75" t="n">
         <v>0.3</v>
       </c>
-      <c r="H8" s="76" t="n">
+      <c r="H8" s="75" t="n">
         <v>0.3</v>
       </c>
-      <c r="I8" s="76" t="n">
+      <c r="I8" s="75" t="n">
         <v>0.3</v>
       </c>
-      <c r="J8" s="76" t="n">
+      <c r="J8" s="75" t="n">
         <v>0.3</v>
       </c>
-      <c r="K8" s="76" t="n">
+      <c r="K8" s="75" t="n">
         <v>0.3</v>
       </c>
-      <c r="L8" s="76" t="n">
+      <c r="L8" s="75" t="n">
         <v>0.3</v>
       </c>
-      <c r="M8" s="76" t="n">
+      <c r="M8" s="75" t="n">
         <v>0.3</v>
       </c>
-      <c r="N8" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="S8" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="T8" s="73" t="s">
+      <c r="N8" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="T8" s="72" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="49" t="s">
@@ -44061,54 +44061,54 @@
       <c r="E9" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="76" t="n">
+      <c r="F9" s="75" t="n">
         <v>0.6</v>
       </c>
-      <c r="G9" s="76" t="n">
+      <c r="G9" s="75" t="n">
         <v>0.6</v>
       </c>
-      <c r="H9" s="76" t="n">
+      <c r="H9" s="75" t="n">
         <v>0.6</v>
       </c>
-      <c r="I9" s="76" t="n">
+      <c r="I9" s="75" t="n">
         <v>0.6</v>
       </c>
-      <c r="J9" s="76" t="n">
+      <c r="J9" s="75" t="n">
         <v>0.6</v>
       </c>
-      <c r="K9" s="76" t="n">
+      <c r="K9" s="75" t="n">
         <v>0.6</v>
       </c>
-      <c r="L9" s="76" t="n">
+      <c r="L9" s="75" t="n">
         <v>0.6</v>
       </c>
-      <c r="M9" s="76" t="n">
+      <c r="M9" s="75" t="n">
         <v>0.6</v>
       </c>
-      <c r="N9" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="S9" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="T9" s="73" t="s">
+      <c r="N9" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="R9" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="T9" s="72" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="49" t="s">
@@ -44123,54 +44123,54 @@
       <c r="E10" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="R10" s="76" t="n">
+      <c r="F10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" s="75" t="n">
         <v>0.8</v>
       </c>
-      <c r="S10" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="T10" s="73" t="s">
+      <c r="S10" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" s="72" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="49" t="s">
@@ -44185,54 +44185,54 @@
       <c r="E11" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="76" t="n">
+      <c r="F11" s="75" t="n">
         <v>0.8</v>
       </c>
-      <c r="G11" s="76" t="n">
+      <c r="G11" s="75" t="n">
         <v>0.8</v>
       </c>
-      <c r="H11" s="76" t="n">
+      <c r="H11" s="75" t="n">
         <v>0.8</v>
       </c>
-      <c r="I11" s="76" t="n">
+      <c r="I11" s="75" t="n">
         <v>0.8</v>
       </c>
-      <c r="J11" s="76" t="n">
+      <c r="J11" s="75" t="n">
         <v>0.8</v>
       </c>
-      <c r="K11" s="76" t="n">
+      <c r="K11" s="75" t="n">
         <v>0.8</v>
       </c>
-      <c r="L11" s="76" t="n">
+      <c r="L11" s="75" t="n">
         <v>0.8</v>
       </c>
-      <c r="M11" s="76" t="n">
+      <c r="M11" s="75" t="n">
         <v>0.8</v>
       </c>
-      <c r="N11" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="P11" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="R11" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="T11" s="73" t="s">
+      <c r="N11" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="R11" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="T11" s="72" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="49" t="s">
@@ -44247,49 +44247,49 @@
       <c r="E12" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="F12" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="76" t="n">
+      <c r="F12" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="75" t="n">
         <v>0.95</v>
       </c>
-      <c r="O12" s="76" t="n">
+      <c r="O12" s="75" t="n">
         <v>0.95</v>
       </c>
-      <c r="P12" s="76" t="n">
+      <c r="P12" s="75" t="n">
         <v>0.95</v>
       </c>
-      <c r="Q12" s="76" t="n">
+      <c r="Q12" s="75" t="n">
         <v>0.95</v>
       </c>
-      <c r="R12" s="76" t="n">
+      <c r="R12" s="75" t="n">
         <v>0.8</v>
       </c>
-      <c r="S12" s="76" t="n">
+      <c r="S12" s="75" t="n">
         <v>0.95</v>
       </c>
-      <c r="T12" s="76" t="n">
+      <c r="T12" s="75" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -44315,48 +44315,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="31:31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="77" t="s">
         <v>46</v>
       </c>
     </row>
@@ -44382,7 +44382,7 @@
       <c r="G2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44408,7 +44408,7 @@
       <c r="G3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44434,7 +44434,7 @@
       <c r="G4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -44460,7 +44460,7 @@
       <c r="G5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44512,7 +44512,7 @@
       <c r="G7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44538,7 +44538,7 @@
       <c r="G8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44564,7 +44564,7 @@
       <c r="G9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44590,7 +44590,7 @@
       <c r="G10" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -44616,7 +44616,7 @@
       <c r="G11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44642,7 +44642,7 @@
       <c r="G12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44668,7 +44668,7 @@
       <c r="G13" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="64" t="s">
+      <c r="H13" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44694,7 +44694,7 @@
       <c r="G14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44720,7 +44720,7 @@
       <c r="G15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44746,7 +44746,7 @@
       <c r="G16" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -44772,7 +44772,7 @@
       <c r="G17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -44798,7 +44798,7 @@
       <c r="G18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="64" t="s">
+      <c r="H18" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44824,7 +44824,7 @@
       <c r="G19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="64" t="s">
+      <c r="H19" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44850,7 +44850,7 @@
       <c r="G20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44876,7 +44876,7 @@
       <c r="G21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="64" t="s">
+      <c r="H21" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -44902,7 +44902,7 @@
       <c r="G22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -44928,7 +44928,7 @@
       <c r="G23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="64" t="s">
+      <c r="H23" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -44954,7 +44954,7 @@
       <c r="G24" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="64" t="s">
+      <c r="H24" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -44980,7 +44980,7 @@
       <c r="G25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="64" t="s">
+      <c r="H25" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -45006,7 +45006,7 @@
       <c r="G26" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="64" t="s">
+      <c r="H26" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -45032,7 +45032,7 @@
       <c r="G27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="63" t="s">
         <v>57</v>
       </c>
     </row>
@@ -45058,7 +45058,7 @@
       <c r="G28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="64" t="s">
+      <c r="H28" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -45084,7 +45084,7 @@
       <c r="G29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="64" t="s">
+      <c r="H29" s="63" t="s">
         <v>56</v>
       </c>
     </row>
@@ -45110,42 +45110,42 @@
       <c r="G30" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="64" t="s">
+      <c r="H30" s="63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="64" t="s">
-        <v>56</v>
+    <row r="31" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G31" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="80" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>57</v>
@@ -45162,22 +45162,22 @@
       <c r="G32" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H32" s="64" t="s">
-        <v>57</v>
+      <c r="H32" s="63" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="49" t="s">
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="49" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>56</v>
@@ -45188,7 +45188,33 @@
       <c r="G33" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H33" s="64" t="s">
+      <c r="H33" s="63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="63" t="s">
         <v>56</v>
       </c>
     </row>

--- a/Projects/MARSIN_SAND/Data/Template.xlsx
+++ b/Projects/MARSIN_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -42,6 +42,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="159">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -1214,22 +1215,22 @@
   </sheetPr>
   <dimension ref="A1:AMB44"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="1016" min="10" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.57085020242915"/>
   </cols>
@@ -36178,11 +36179,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.57085020242915"/>
@@ -36190,7 +36191,7 @@
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="20" min="19" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
@@ -41340,10 +41341,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.7085020242915"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
@@ -41857,12 +41858,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="55.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -42375,10 +42376,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="65.8785425101215"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.412955465587"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="0" width="13.3886639676113"/>
@@ -43563,15 +43564,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.8825910931174"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -44311,20 +44312,20 @@
   </sheetPr>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -45124,8 +45125,8 @@
       <c r="E31" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="79" t="n">
-        <v>0.01</v>
+      <c r="F31" s="79" t="s">
+        <v>55</v>
       </c>
       <c r="G31" s="79" t="s">
         <v>56</v>

--- a/Projects/MARSIN_SAND/Data/Template.xlsx
+++ b/Projects/MARSIN_SAND/Data/Template.xlsx
@@ -51,6 +51,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -196,7 +197,7 @@
     <t xml:space="preserve">Cash &amp; carry</t>
   </si>
   <si>
-    <t xml:space="preserve">min Facings</t>
+    <t xml:space="preserve">Min Facings</t>
   </si>
   <si>
     <t xml:space="preserve">Entity</t>
@@ -1270,14 +1271,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.2064777327935"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="1016" min="10" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.57085020242915"/>
   </cols>
@@ -36220,8 +36221,8 @@
   </sheetPr>
   <dimension ref="A1:T73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -36229,7 +36230,7 @@
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.21457489878542"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="202.882591093117"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="204.704453441296"/>
     <col collapsed="false" hidden="false" max="20" min="6" style="0" width="3.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
   </cols>
@@ -36268,7 +36269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -40662,10 +40663,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="39.3117408906883"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
@@ -41179,12 +41180,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="59.3441295546559"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -41697,10 +41698,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="71.2348178137652"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="0" width="13.3886639676113"/>
@@ -42885,15 +42886,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.5627530364373"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -43639,14 +43640,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSIN_SAND/Data/Template.xlsx
+++ b/Projects/MARSIN_SAND/Data/Template.xlsx
@@ -44,6 +44,8 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="155">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -337,9 +339,6 @@
   </si>
   <si>
     <t xml:space="preserve">8410136004018 / 18853301550045, 8410136004056, 8410136004117 / 18853301550021, 8410136004193, 8410136004155, 8410136004094, 8410136004070, 8410136004179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N / A</t>
   </si>
   <si>
     <t xml:space="preserve">8410136004018 / 18853301550045, 8410136004056, 8410136004117 / 18853301550021, 8410136004193, 8410136004155, 8410136004094, 8410136004179</t>
@@ -1259,19 +1258,19 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F28" activeCellId="3" sqref="E31:E36 E38 E40 F28"/>
+      <selection pane="bottomLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="1016" min="10" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.57085020242915"/>
   </cols>
@@ -36214,17 +36213,17 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31:E36 E38 E40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="17" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.57085020242915"/>
@@ -36232,7 +36231,7 @@
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="20" min="19" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
@@ -38684,7 +38683,7 @@
         <v>93</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>55</v>
@@ -38741,7 +38740,7 @@
         <v>52</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>55</v>
@@ -38801,7 +38800,7 @@
         <v>52</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>55</v>
@@ -38861,7 +38860,7 @@
         <v>52</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" s="25" t="s">
         <v>55</v>
@@ -38921,7 +38920,7 @@
         <v>52</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F46" s="25" t="s">
         <v>55</v>
@@ -38981,7 +38980,7 @@
         <v>52</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>55</v>
@@ -39041,7 +39040,7 @@
         <v>52</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>55</v>
@@ -39101,7 +39100,7 @@
         <v>52</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F49" s="25" t="s">
         <v>55</v>
@@ -39160,10 +39159,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>102</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>103</v>
       </c>
       <c r="F50" s="34" t="n">
         <v>4</v>
@@ -39346,10 +39345,10 @@
         <v>2</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53" s="34" t="s">
         <v>55</v>
@@ -39408,10 +39407,10 @@
         <v>1</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F54" s="34" t="s">
         <v>55</v>
@@ -39532,10 +39531,10 @@
         <v>2</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F56" s="34" t="s">
         <v>55</v>
@@ -39656,10 +39655,10 @@
         <v>2</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F58" s="34" t="s">
         <v>55</v>
@@ -39718,10 +39717,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F59" s="34" t="s">
         <v>55</v>
@@ -39842,10 +39841,10 @@
         <v>3</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F61" s="34" t="s">
         <v>55</v>
@@ -39902,10 +39901,10 @@
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="37" t="s">
         <v>109</v>
-      </c>
-      <c r="E62" s="37" t="s">
-        <v>110</v>
       </c>
       <c r="F62" s="34" t="s">
         <v>55</v>
@@ -40024,10 +40023,10 @@
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F64" s="34" t="s">
         <v>55</v>
@@ -40089,7 +40088,7 @@
         <v>29</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F65" s="26" t="s">
         <v>55</v>
@@ -40147,10 +40146,10 @@
       </c>
       <c r="C66" s="22"/>
       <c r="D66" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F66" s="34" t="s">
         <v>55</v>
@@ -40269,10 +40268,10 @@
       </c>
       <c r="C68" s="22"/>
       <c r="D68" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F68" s="39" t="n">
         <v>1</v>
@@ -40455,10 +40454,10 @@
         <v>3</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F71" s="39" t="s">
         <v>55</v>
@@ -40579,10 +40578,10 @@
         <v>4</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F73" s="39" t="s">
         <v>55</v>
@@ -40668,15 +40667,15 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N5" activeCellId="3" sqref="E31:E36 E38 E40 N5"/>
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
@@ -40740,10 +40739,10 @@
         <v>46</v>
       </c>
       <c r="D2" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>115</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>116</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>48</v>
@@ -40796,10 +40795,10 @@
         <v>52</v>
       </c>
       <c r="D3" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="45" t="s">
         <v>117</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>118</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>54</v>
@@ -40920,10 +40919,10 @@
         <v>52</v>
       </c>
       <c r="D5" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="45" t="s">
         <v>119</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>120</v>
       </c>
       <c r="F5" s="39" t="s">
         <v>54</v>
@@ -41044,10 +41043,10 @@
         <v>52</v>
       </c>
       <c r="D7" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="45" t="s">
         <v>121</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>122</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>54</v>
@@ -41106,10 +41105,10 @@
         <v>52</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="39" t="s">
         <v>56</v>
@@ -41185,17 +41184,17 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V10" activeCellId="3" sqref="E31:E36 E38 E40 V10"/>
+      <selection pane="topLeft" activeCell="V10" activeCellId="0" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.0242914979757"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.8785425101215"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -41244,16 +41243,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="F2" s="42" t="s">
         <v>126</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>127</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>48</v>
@@ -41309,10 +41308,10 @@
         <v>31</v>
       </c>
       <c r="E3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>128</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>129</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>55</v>
@@ -41374,10 +41373,10 @@
         <v>31</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>55</v>
@@ -41500,10 +41499,10 @@
         <v>33</v>
       </c>
       <c r="E6" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="57" t="s">
         <v>128</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>129</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>55</v>
@@ -41565,10 +41564,10 @@
         <v>33</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>55</v>
@@ -41703,15 +41702,15 @@
   <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="3" sqref="E31:E36 E38 E40 T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.2348178137652"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="0" width="13.3886639676113"/>
@@ -41763,13 +41762,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="E2" s="42" t="s">
         <v>132</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>133</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>48</v>
@@ -41822,10 +41821,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="62" t="s">
         <v>134</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>135</v>
       </c>
       <c r="F3" s="63" t="s">
         <v>54</v>
@@ -41884,10 +41883,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" s="64" t="s">
         <v>55</v>
@@ -41946,10 +41945,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" s="64" t="s">
         <v>55</v>
@@ -42008,10 +42007,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" s="64" t="s">
         <v>55</v>
@@ -42070,10 +42069,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" s="64" t="s">
         <v>55</v>
@@ -42132,10 +42131,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="63" t="s">
         <v>54</v>
@@ -42194,10 +42193,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F9" s="64" t="s">
         <v>55</v>
@@ -42256,10 +42255,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10" s="64" t="s">
         <v>55</v>
@@ -42318,10 +42317,10 @@
         <v>13</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" s="64" t="s">
         <v>55</v>
@@ -42380,10 +42379,10 @@
         <v>16</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" s="64" t="s">
         <v>55</v>
@@ -42442,10 +42441,10 @@
         <v>3</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F13" s="63" t="s">
         <v>54</v>
@@ -42504,10 +42503,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F14" s="63" t="s">
         <v>54</v>
@@ -42566,10 +42565,10 @@
         <v>5</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F15" s="63" t="s">
         <v>54</v>
@@ -42628,10 +42627,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F16" s="64" t="s">
         <v>55</v>
@@ -42690,10 +42689,10 @@
         <v>11</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="64" t="s">
         <v>55</v>
@@ -42752,10 +42751,10 @@
         <v>14</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="64" t="s">
         <v>55</v>
@@ -42814,10 +42813,10 @@
         <v>17</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F19" s="64" t="s">
         <v>55</v>
@@ -42891,20 +42890,20 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="3" sqref="E31:E36 E38 E40 T2"/>
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.8502024291498"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -42955,10 +42954,10 @@
         <v>46</v>
       </c>
       <c r="D2" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="E2" s="71" t="s">
-        <v>144</v>
       </c>
       <c r="F2" s="68" t="s">
         <v>48</v>
@@ -43014,7 +43013,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="74" t="n">
         <v>0.55</v>
@@ -43076,7 +43075,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F4" s="75" t="s">
         <v>55</v>
@@ -43138,7 +43137,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F5" s="74" t="n">
         <v>0.75</v>
@@ -43200,7 +43199,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F6" s="75" t="s">
         <v>55</v>
@@ -43262,7 +43261,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="75" t="s">
         <v>55</v>
@@ -43321,10 +43320,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="52" t="s">
         <v>150</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>151</v>
       </c>
       <c r="F8" s="79" t="n">
         <v>0.3</v>
@@ -43386,7 +43385,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F9" s="79" t="n">
         <v>0.6</v>
@@ -43448,7 +43447,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F10" s="75" t="s">
         <v>55</v>
@@ -43510,7 +43509,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11" s="79" t="n">
         <v>0.8</v>
@@ -43572,7 +43571,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" s="75" t="s">
         <v>55</v>
@@ -43645,19 +43644,19 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E40" activeCellId="2" sqref="E31:E36 E38 E40"/>
+      <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSIN_SAND/Data/Template.xlsx
+++ b/Projects/MARSIN_SAND/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -46,6 +46,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Product Group Adjacency'!$A$2:$T$8</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -447,7 +448,7 @@
     <t xml:space="preserve">18906002483171, 18906002489043, 8906002480203, 18906002483188, 18906002481436</t>
   </si>
   <si>
-    <t xml:space="preserve">Biscrock : Care &amp; Treat</t>
+    <t xml:space="preserve">Biscrok : Care &amp; Treat</t>
   </si>
   <si>
     <t xml:space="preserve">Block Entity</t>
@@ -1263,22 +1264,22 @@
   </sheetPr>
   <dimension ref="1:45"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="99" zoomScaleNormal="99" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="1016" min="10" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="1025" min="1017" style="0" width="8.57085020242915"/>
   </cols>
@@ -36321,17 +36322,17 @@
   </sheetPr>
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E78" activeCellId="0" sqref="E78"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="74.9838056680162"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="14" width="75.6275303643725"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="8.57085020242915"/>
@@ -36339,7 +36340,7 @@
     <col collapsed="false" hidden="false" max="14" min="11" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="17" min="16" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="20" min="19" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
@@ -41064,15 +41065,15 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="38.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.49797570850202"/>
@@ -41553,7 +41554,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="s">
         <v>17</v>
       </c>
@@ -41648,12 +41649,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2064777327935"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="58.4858299595142"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -42166,10 +42167,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.0566801619433"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="0" width="13.3886639676113"/>
@@ -43540,15 +43541,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.919028340081"/>
     <col collapsed="false" hidden="false" max="17" min="6" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.21052631578947"/>
   </cols>
   <sheetData>
@@ -44288,20 +44289,20 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
